--- a/results_step3_nodal.xlsx
+++ b/results_step3_nodal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601c3f8e6edde6a/Documents/Ms_Sustainable_Energy/46755_Renewables_in_electricity_markets/REIM_Github/RenewablesInElectricityMarkets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="115_{FA41F1C4-BA50-41E6-A0B2-306D275281AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC02175-4BE9-4197-8B5F-07D3D9AE6276}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DA_Prices" sheetId="1" r:id="rId1"/>
-    <sheet name="Voltage_angle" sheetId="2" r:id="rId2"/>
+    <sheet name="Voltage_angle" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>N1</t>
   </si>
@@ -133,9 +133,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,16 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBADF08-EBBC-47DB-A1D4-394976BCA1D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,12 +529,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>11.315366748166284</v>
       </c>
       <c r="B2">
-        <v>11.637518337408331</v>
+        <v>11.63751833740833</v>
       </c>
       <c r="C2">
         <v>10.610660146699281</v>
@@ -552,16 +549,16 @@
         <v>11.858997555012236</v>
       </c>
       <c r="G2">
-        <v>11.959669926650371</v>
+        <v>11.95966992665037</v>
       </c>
       <c r="H2">
-        <v>11.959669926650371</v>
+        <v>11.95966992665037</v>
       </c>
       <c r="I2">
         <v>11.8388630806846</v>
       </c>
       <c r="J2">
-        <v>12.080476772616141</v>
+        <v>12.08047677261614</v>
       </c>
       <c r="K2">
         <v>13.209349633251833</v>
@@ -573,25 +570,25 @@
         <v>11.91805867970659</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="O2">
-        <v>6.7448410757946249</v>
+        <v>6.744841075794625</v>
       </c>
       <c r="P2">
-        <v>5.2951589242053796</v>
+        <v>5.29515892420538</v>
       </c>
       <c r="Q2">
-        <v>5.7783863080684581</v>
+        <v>5.778386308068458</v>
       </c>
       <c r="R2">
         <v>6.02</v>
       </c>
       <c r="S2">
-        <v>7.1528997555012204</v>
+        <v>7.15289975550122</v>
       </c>
       <c r="T2">
-        <v>9.0106405867970611</v>
+        <v>9.010640586797061</v>
       </c>
       <c r="U2">
         <v>6.261613691931541</v>
@@ -603,10 +600,10 @@
         <v>10.868381418092902</v>
       </c>
       <c r="X2">
-        <v>8.6777506112469531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.677750611246953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>10.854257602862262</v>
       </c>
@@ -650,16 +647,16 @@
         <v>10.303184257602865</v>
       </c>
       <c r="O3">
-        <v>11.879615384615381</v>
+        <v>11.87961538461538</v>
       </c>
       <c r="P3">
-        <v>10.032164579606439</v>
+        <v>10.03216457960644</v>
       </c>
       <c r="Q3">
-        <v>7.7510822898032199</v>
+        <v>7.75108228980322</v>
       </c>
       <c r="R3">
-        <v>6.6105411449016103</v>
+        <v>6.61054114490161</v>
       </c>
       <c r="S3">
         <v>10.194776386404293</v>
@@ -671,7 +668,7 @@
         <v>5.47</v>
       </c>
       <c r="V3">
-        <v>6.6105411449016103</v>
+        <v>6.61054114490161</v>
       </c>
       <c r="W3">
         <v>10.52</v>
@@ -680,7 +677,7 @@
         <v>11.445983899821103</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>10.875962264150942</v>
       </c>
@@ -721,22 +718,22 @@
         <v>10.727018867924535</v>
       </c>
       <c r="N4">
-        <v>11.270188679245329</v>
+        <v>11.27018867924533</v>
       </c>
       <c r="O4">
         <v>11.060132075471701</v>
       </c>
       <c r="P4">
-        <v>9.2486792452830002</v>
+        <v>9.248679245283</v>
       </c>
       <c r="Q4">
         <v>7.3593396226414995</v>
       </c>
       <c r="R4">
-        <v>6.4146698113207492</v>
+        <v>6.414669811320749</v>
       </c>
       <c r="S4">
-        <v>9.6724528301886679</v>
+        <v>9.672452830188668</v>
       </c>
       <c r="T4">
         <v>10.096226415094334</v>
@@ -745,21 +742,21 @@
         <v>5.47</v>
       </c>
       <c r="V4">
-        <v>6.4146698113207492</v>
+        <v>6.414669811320749</v>
       </c>
       <c r="W4">
         <v>10.52</v>
       </c>
       <c r="X4">
-        <v>10.982245283018869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+        <v>10.98224528301887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>11.297196382428915</v>
       </c>
       <c r="B5">
-        <v>11.351976744186031</v>
+        <v>11.35197674418603</v>
       </c>
       <c r="C5">
         <v>11.177364341085259</v>
@@ -801,25 +798,25 @@
         <v>10.52</v>
       </c>
       <c r="P5">
-        <v>8.6175452196382487</v>
+        <v>8.617545219638249</v>
       </c>
       <c r="Q5">
-        <v>7.0437726098191238</v>
+        <v>7.043772609819124</v>
       </c>
       <c r="R5">
-        <v>6.2568863049095622</v>
+        <v>6.256886304909562</v>
       </c>
       <c r="S5">
-        <v>9.3750301464254981</v>
+        <v>9.375030146425498</v>
       </c>
       <c r="T5">
-        <v>10.132515073212749</v>
+        <v>10.13251507321275</v>
       </c>
       <c r="U5">
         <v>5.47</v>
       </c>
       <c r="V5">
-        <v>6.2568863049095622</v>
+        <v>6.256886304909562</v>
       </c>
       <c r="W5">
         <v>10.89</v>
@@ -828,7 +825,7 @@
         <v>10.848682170542629</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>10.890268087855276</v>
       </c>
@@ -875,34 +872,34 @@
         <v>10.52</v>
       </c>
       <c r="P6">
-        <v>8.7322739018087869</v>
+        <v>8.732273901808787</v>
       </c>
       <c r="Q6">
-        <v>7.1011369509043938</v>
+        <v>7.101136950904394</v>
       </c>
       <c r="R6">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S6">
-        <v>9.3281826012058566</v>
+        <v>9.328182601205857</v>
       </c>
       <c r="T6">
-        <v>9.9240913006029281</v>
+        <v>9.924091300602928</v>
       </c>
       <c r="U6">
         <v>5.47</v>
       </c>
       <c r="V6">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W6">
         <v>10.52</v>
       </c>
       <c r="X6">
-        <v>10.676589147286821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>10.67658914728682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>10.890268087855297</v>
       </c>
@@ -916,7 +913,7 @@
         <v>10.924521963824288</v>
       </c>
       <c r="E7">
-        <v>10.921259689922479</v>
+        <v>10.92125968992248</v>
       </c>
       <c r="F7">
         <v>10.934308785529716</v>
@@ -949,108 +946,108 @@
         <v>10.52</v>
       </c>
       <c r="P7">
-        <v>8.7322739018087869</v>
+        <v>8.732273901808787</v>
       </c>
       <c r="Q7">
-        <v>7.1011369509043938</v>
+        <v>7.101136950904394</v>
       </c>
       <c r="R7">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S7">
-        <v>9.3281826012058566</v>
+        <v>9.328182601205857</v>
       </c>
       <c r="T7">
-        <v>9.9240913006029281</v>
+        <v>9.924091300602928</v>
       </c>
       <c r="U7">
         <v>5.47</v>
       </c>
       <c r="V7">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W7">
         <v>10.52</v>
       </c>
       <c r="X7">
-        <v>10.676589147286821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <v>10.67658914728682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
-        <v>9.7121423537702469</v>
+        <v>9.712142353770247</v>
       </c>
       <c r="B8">
-        <v>9.6552008456659522</v>
+        <v>9.655200845665952</v>
       </c>
       <c r="C8">
-        <v>9.8367019027484126</v>
+        <v>9.836701902748413</v>
       </c>
       <c r="D8">
-        <v>9.6374066243833632</v>
+        <v>9.637406624383363</v>
       </c>
       <c r="E8">
-        <v>9.6445243128963991</v>
+        <v>9.644524312896399</v>
       </c>
       <c r="F8">
-        <v>9.6160535588442517</v>
+        <v>9.616053558844252</v>
       </c>
       <c r="G8">
-        <v>9.5982593375616609</v>
+        <v>9.598259337561661</v>
       </c>
       <c r="H8">
-        <v>9.5982593375616609</v>
+        <v>9.598259337561661</v>
       </c>
       <c r="I8">
-        <v>9.6196124031007724</v>
+        <v>9.619612403100772</v>
       </c>
       <c r="J8">
-        <v>9.5769062720225513</v>
+        <v>9.576906272022551</v>
       </c>
       <c r="K8">
-        <v>9.4914940098661056</v>
+        <v>9.491494009866106</v>
       </c>
       <c r="L8">
-        <v>9.5342001409443284</v>
+        <v>9.534200140944328</v>
       </c>
       <c r="M8">
         <v>9.491494009866102</v>
       </c>
       <c r="N8">
-        <v>9.2779633544749807</v>
+        <v>9.27796335447498</v>
       </c>
       <c r="O8">
         <v>10.52</v>
       </c>
       <c r="P8">
-        <v>9.0644326990838628</v>
+        <v>9.064432699083863</v>
       </c>
       <c r="Q8">
-        <v>7.2672163495419309</v>
+        <v>7.267216349541931</v>
       </c>
       <c r="R8">
-        <v>6.3686081747709657</v>
+        <v>6.368608174770966</v>
       </c>
       <c r="S8">
         <v>9.192551092318535</v>
       </c>
       <c r="T8">
-        <v>9.3206694855532053</v>
+        <v>9.320669485553205</v>
       </c>
       <c r="U8">
         <v>5.47</v>
       </c>
       <c r="V8">
-        <v>6.3686081747709657</v>
+        <v>6.368608174770966</v>
       </c>
       <c r="W8">
-        <v>9.4487878787878756</v>
+        <v>9.448787878787876</v>
       </c>
       <c r="X8">
         <v>10.178350951374206</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>10.890268087855276</v>
       </c>
@@ -1070,10 +1067,10 @@
         <v>10.93430878552971</v>
       </c>
       <c r="G9">
-        <v>10.942464470284239</v>
+        <v>10.94246447028424</v>
       </c>
       <c r="H9">
-        <v>10.942464470284239</v>
+        <v>10.94246447028424</v>
       </c>
       <c r="I9">
         <v>10.932677648578814</v>
@@ -1097,34 +1094,34 @@
         <v>10.52</v>
       </c>
       <c r="P9">
-        <v>8.7322739018087869</v>
+        <v>8.732273901808787</v>
       </c>
       <c r="Q9">
-        <v>7.1011369509043938</v>
+        <v>7.101136950904394</v>
       </c>
       <c r="R9">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S9">
-        <v>9.3281826012058566</v>
+        <v>9.328182601205857</v>
       </c>
       <c r="T9">
-        <v>9.9240913006029281</v>
+        <v>9.924091300602928</v>
       </c>
       <c r="U9">
         <v>5.47</v>
       </c>
       <c r="V9">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W9">
         <v>10.52</v>
       </c>
       <c r="X9">
-        <v>10.676589147286821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+        <v>10.67658914728682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>10.890268087855304</v>
       </c>
@@ -1162,34 +1159,34 @@
         <v>10.80816752799311</v>
       </c>
       <c r="M10">
-        <v>10.827741171403961</v>
+        <v>10.82774117140396</v>
       </c>
       <c r="N10">
-        <v>11.907553832902661</v>
+        <v>11.90755383290266</v>
       </c>
       <c r="O10">
         <v>10.52</v>
       </c>
       <c r="P10">
-        <v>8.7322739018087852</v>
+        <v>8.732273901808785</v>
       </c>
       <c r="Q10">
         <v>7.101136950904392</v>
       </c>
       <c r="R10">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S10">
-        <v>9.3281826012058566</v>
+        <v>9.328182601205857</v>
       </c>
       <c r="T10">
-        <v>9.9240913006029281</v>
+        <v>9.924091300602928</v>
       </c>
       <c r="U10">
         <v>5.47</v>
       </c>
       <c r="V10">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W10">
         <v>10.52</v>
@@ -1198,7 +1195,7 @@
         <v>10.676589147286823</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>10.890268087855304</v>
       </c>
@@ -1236,34 +1233,34 @@
         <v>10.80816752799311</v>
       </c>
       <c r="M11">
-        <v>10.827741171403961</v>
+        <v>10.82774117140396</v>
       </c>
       <c r="N11">
-        <v>11.907553832902661</v>
+        <v>11.90755383290266</v>
       </c>
       <c r="O11">
         <v>10.52</v>
       </c>
       <c r="P11">
-        <v>8.7322739018087852</v>
+        <v>8.732273901808785</v>
       </c>
       <c r="Q11">
         <v>7.101136950904392</v>
       </c>
       <c r="R11">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S11">
-        <v>9.3281826012058566</v>
+        <v>9.328182601205857</v>
       </c>
       <c r="T11">
-        <v>9.9240913006029281</v>
+        <v>9.924091300602928</v>
       </c>
       <c r="U11">
         <v>5.47</v>
       </c>
       <c r="V11">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W11">
         <v>10.52</v>
@@ -1272,24 +1269,24 @@
         <v>10.676589147286823</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24">
       <c r="A12">
-        <v>8.0664356435643505</v>
+        <v>8.06643564356435</v>
       </c>
       <c r="B12">
-        <v>8.0315841584158356</v>
+        <v>8.031584158415836</v>
       </c>
       <c r="C12">
-        <v>8.1426732673267281</v>
+        <v>8.142673267326728</v>
       </c>
       <c r="D12">
-        <v>8.0206930693069225</v>
+        <v>8.020693069306922</v>
       </c>
       <c r="E12">
-        <v>8.0250495049504877</v>
+        <v>8.025049504950488</v>
       </c>
       <c r="F12">
-        <v>8.0076237623762303</v>
+        <v>8.00762376237623</v>
       </c>
       <c r="G12">
         <v>7.996732673267319</v>
@@ -1298,28 +1295,28 @@
         <v>7.996732673267319</v>
       </c>
       <c r="I12">
-        <v>8.0098019801980112</v>
+        <v>8.009801980198011</v>
       </c>
       <c r="J12">
-        <v>7.9836633663366268</v>
+        <v>7.983663366336627</v>
       </c>
       <c r="K12">
         <v>7.9313861386138536</v>
       </c>
       <c r="L12">
-        <v>7.9575247524752388</v>
+        <v>7.957524752475239</v>
       </c>
       <c r="M12">
-        <v>7.9313861386138527</v>
+        <v>7.931386138613853</v>
       </c>
       <c r="N12">
-        <v>7.8006930693069254</v>
+        <v>7.800693069306925</v>
       </c>
       <c r="O12">
-        <v>8.5608910891089067</v>
+        <v>8.560891089108907</v>
       </c>
       <c r="P12">
-        <v>7.6699999999999964</v>
+        <v>7.669999999999996</v>
       </c>
       <c r="Q12">
         <v>6.5699999999999985</v>
@@ -1331,7 +1328,7 @@
         <v>7.748415841584154</v>
       </c>
       <c r="T12">
-        <v>7.8268316831683107</v>
+        <v>7.826831683168311</v>
       </c>
       <c r="U12">
         <v>5.47</v>
@@ -1340,13 +1337,13 @@
         <v>6.02</v>
       </c>
       <c r="W12">
-        <v>7.9052475247524674</v>
+        <v>7.905247524752467</v>
       </c>
       <c r="X12">
-        <v>8.3517821782178174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.351782178217817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11.336342449922963</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>7.22</v>
       </c>
       <c r="P13">
-        <v>5.6955007704160252</v>
+        <v>5.695500770416025</v>
       </c>
       <c r="Q13">
         <v>5.9118335901386745</v>
@@ -1402,13 +1399,13 @@
         <v>6.02</v>
       </c>
       <c r="S13">
-        <v>7.4270005136106834</v>
+        <v>7.427000513610683</v>
       </c>
       <c r="T13">
-        <v>9.1585002568053415</v>
+        <v>9.158500256805342</v>
       </c>
       <c r="U13">
-        <v>6.1281664098613247</v>
+        <v>6.128166409861325</v>
       </c>
       <c r="V13">
         <v>6.02</v>
@@ -1417,10 +1414,10 @@
         <v>10.89</v>
       </c>
       <c r="X13">
-        <v>8.9608320493066262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.960832049306626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>13.135637860082294</v>
       </c>
@@ -1428,7 +1425,7 @@
         <v>13.32</v>
       </c>
       <c r="C14">
-        <v>12.732345679012351</v>
+        <v>12.73234567901235</v>
       </c>
       <c r="D14">
         <v>13.377613168724292</v>
@@ -1467,16 +1464,16 @@
         <v>10.52</v>
       </c>
       <c r="P14">
-        <v>8.0992181069958828</v>
+        <v>8.099218106995883</v>
       </c>
       <c r="Q14">
-        <v>6.7846090534979417</v>
+        <v>6.784609053497942</v>
       </c>
       <c r="R14">
-        <v>6.1273045267489703</v>
+        <v>6.12730452674897</v>
       </c>
       <c r="S14">
-        <v>9.0294787379972554</v>
+        <v>9.029478737997255</v>
       </c>
       <c r="T14">
         <v>9.959739368998628</v>
@@ -1485,7 +1482,7 @@
         <v>5.47</v>
       </c>
       <c r="V14">
-        <v>6.1273045267489703</v>
+        <v>6.12730452674897</v>
       </c>
       <c r="W14">
         <v>10.89</v>
@@ -1494,9 +1491,9 @@
         <v>11.626172839506175</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24">
       <c r="A15">
-        <v>10.890268087855279</v>
+        <v>10.89026808785528</v>
       </c>
       <c r="B15">
         <v>10.916366279069756</v>
@@ -1535,31 +1532,31 @@
         <v>10.827741171403963</v>
       </c>
       <c r="N15">
-        <v>11.907553832902661</v>
+        <v>11.90755383290266</v>
       </c>
       <c r="O15">
         <v>10.52</v>
       </c>
       <c r="P15">
-        <v>8.7322739018087887</v>
+        <v>8.732273901808789</v>
       </c>
       <c r="Q15">
-        <v>7.1011369509043938</v>
+        <v>7.101136950904394</v>
       </c>
       <c r="R15">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S15">
-        <v>9.3281826012058602</v>
+        <v>9.32818260120586</v>
       </c>
       <c r="T15">
-        <v>9.9240913006029299</v>
+        <v>9.92409130060293</v>
       </c>
       <c r="U15">
         <v>5.47</v>
       </c>
       <c r="V15">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W15">
         <v>10.52</v>
@@ -1568,7 +1565,7 @@
         <v>10.676589147286816</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>10.890268087855294</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>10.80816752799311</v>
       </c>
       <c r="M16">
-        <v>10.827741171403961</v>
+        <v>10.82774117140396</v>
       </c>
       <c r="N16">
         <v>11.907553832902657</v>
@@ -1615,25 +1612,25 @@
         <v>10.52</v>
       </c>
       <c r="P16">
-        <v>8.7322739018087887</v>
+        <v>8.732273901808789</v>
       </c>
       <c r="Q16">
-        <v>7.1011369509043938</v>
+        <v>7.101136950904394</v>
       </c>
       <c r="R16">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S16">
-        <v>9.3281826012058602</v>
+        <v>9.32818260120586</v>
       </c>
       <c r="T16">
-        <v>9.9240913006029299</v>
+        <v>9.92409130060293</v>
       </c>
       <c r="U16">
         <v>5.47</v>
       </c>
       <c r="V16">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W16">
         <v>10.52</v>
@@ -1642,7 +1639,7 @@
         <v>10.676589147286819</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>10.919695945945941</v>
       </c>
@@ -1686,10 +1683,10 @@
         <v>13.218648648648662</v>
       </c>
       <c r="O17">
-        <v>9.4089189189189142</v>
+        <v>9.408918918918914</v>
       </c>
       <c r="P17">
-        <v>7.6699999999999964</v>
+        <v>7.669999999999996</v>
       </c>
       <c r="Q17">
         <v>6.5699999999999985</v>
@@ -1698,10 +1695,10 @@
         <v>6.02</v>
       </c>
       <c r="S17">
-        <v>8.6199999999999974</v>
+        <v>8.619999999999997</v>
       </c>
       <c r="T17">
-        <v>9.5699999999999985</v>
+        <v>9.569999999999999</v>
       </c>
       <c r="U17">
         <v>5.47</v>
@@ -1716,7 +1713,7 @@
         <v>10.047837837837832</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>10.282449610319821</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>10.60954447729106</v>
       </c>
       <c r="C18">
-        <v>9.7147540983606682</v>
+        <v>9.714754098360668</v>
       </c>
       <c r="D18">
         <v>10.859586132760015</v>
@@ -1763,16 +1760,16 @@
         <v>10.52</v>
       </c>
       <c r="P18">
-        <v>9.1050819672131098</v>
+        <v>9.10508196721311</v>
       </c>
       <c r="Q18">
-        <v>7.2875409836065543</v>
+        <v>7.287540983606554</v>
       </c>
       <c r="R18">
-        <v>6.3787704918032766</v>
+        <v>6.378770491803277</v>
       </c>
       <c r="S18">
-        <v>9.5767213114754064</v>
+        <v>9.576721311475406</v>
       </c>
       <c r="T18">
         <v>10.048360655737703</v>
@@ -1781,7 +1778,7 @@
         <v>5.47</v>
       </c>
       <c r="V18">
-        <v>6.3787704918032766</v>
+        <v>6.378770491803277</v>
       </c>
       <c r="W18">
         <v>10.52</v>
@@ -1790,66 +1787,66 @@
         <v>10.117377049180334</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24">
       <c r="A19">
-        <v>8.3835506003430424</v>
+        <v>8.383550600343042</v>
       </c>
       <c r="B19">
-        <v>8.3444425385934764</v>
+        <v>8.344442538593476</v>
       </c>
       <c r="C19">
-        <v>8.4690994854202355</v>
+        <v>8.469099485420235</v>
       </c>
       <c r="D19">
-        <v>8.3322212692967383</v>
+        <v>8.332221269296738</v>
       </c>
       <c r="E19">
-        <v>8.3371097770154314</v>
+        <v>8.337109777015431</v>
       </c>
       <c r="F19">
-        <v>8.3175557461406484</v>
+        <v>8.317555746140648</v>
       </c>
       <c r="G19">
-        <v>8.3053344768439104</v>
+        <v>8.30533447684391</v>
       </c>
       <c r="H19">
-        <v>8.3053344768439104</v>
+        <v>8.30533447684391</v>
       </c>
       <c r="I19">
         <v>8.32</v>
       </c>
       <c r="J19">
-        <v>8.2906689536878204</v>
+        <v>8.29066895368782</v>
       </c>
       <c r="K19">
-        <v>8.2320068610634678</v>
+        <v>8.232006861063468</v>
       </c>
       <c r="L19">
-        <v>8.2613379073756459</v>
+        <v>8.261337907375646</v>
       </c>
       <c r="M19">
-        <v>8.2320068610634678</v>
+        <v>8.232006861063468</v>
       </c>
       <c r="N19">
-        <v>8.0853516295025756</v>
+        <v>8.085351629502576</v>
       </c>
       <c r="O19">
-        <v>8.9383962264150938</v>
+        <v>8.938396226415094</v>
       </c>
       <c r="P19">
         <v>7.9386963979416825</v>
       </c>
       <c r="Q19">
-        <v>6.7043481989708411</v>
+        <v>6.704348198970841</v>
       </c>
       <c r="R19">
         <v>6.08717409948542</v>
       </c>
       <c r="S19">
-        <v>8.0266895368782176</v>
+        <v>8.026689536878218</v>
       </c>
       <c r="T19">
-        <v>8.1146826758147519</v>
+        <v>8.114682675814752</v>
       </c>
       <c r="U19">
         <v>5.47</v>
@@ -1858,13 +1855,13 @@
         <v>6.08717409948542</v>
       </c>
       <c r="W19">
-        <v>8.2026758147512879</v>
+        <v>8.202675814751288</v>
       </c>
       <c r="X19">
-        <v>8.7037478559176655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.703747855917666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>11.297196382428941</v>
       </c>
@@ -1911,16 +1908,16 @@
         <v>10.52</v>
       </c>
       <c r="P20">
-        <v>8.6175452196382434</v>
+        <v>8.617545219638243</v>
       </c>
       <c r="Q20">
         <v>7.043772609819122</v>
       </c>
       <c r="R20">
-        <v>6.2568863049095604</v>
+        <v>6.25688630490956</v>
       </c>
       <c r="S20">
-        <v>9.3750301464254946</v>
+        <v>9.375030146425495</v>
       </c>
       <c r="T20">
         <v>10.132515073212748</v>
@@ -1929,7 +1926,7 @@
         <v>5.47</v>
       </c>
       <c r="V20">
-        <v>6.2568863049095604</v>
+        <v>6.25688630490956</v>
       </c>
       <c r="W20">
         <v>10.89</v>
@@ -1938,7 +1935,7 @@
         <v>10.848682170542636</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>11.297196382428929</v>
       </c>
@@ -1985,16 +1982,16 @@
         <v>10.52</v>
       </c>
       <c r="P21">
-        <v>8.6175452196382452</v>
+        <v>8.617545219638245</v>
       </c>
       <c r="Q21">
         <v>7.043772609819122</v>
       </c>
       <c r="R21">
-        <v>6.2568863049095604</v>
+        <v>6.25688630490956</v>
       </c>
       <c r="S21">
-        <v>9.3750301464254964</v>
+        <v>9.375030146425496</v>
       </c>
       <c r="T21">
         <v>10.132515073212748</v>
@@ -2003,7 +2000,7 @@
         <v>5.47</v>
       </c>
       <c r="V21">
-        <v>6.2568863049095604</v>
+        <v>6.25688630490956</v>
       </c>
       <c r="W21">
         <v>10.89</v>
@@ -2012,7 +2009,7 @@
         <v>10.848682170542633</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>10.89397609819121</v>
       </c>
@@ -2059,25 +2056,25 @@
         <v>10.38</v>
       </c>
       <c r="P22">
-        <v>8.5984237726098218</v>
+        <v>8.598423772609822</v>
       </c>
       <c r="Q22">
-        <v>7.0342118863049112</v>
+        <v>7.034211886304911</v>
       </c>
       <c r="R22">
-        <v>6.2521059431524559</v>
+        <v>6.252105943152456</v>
       </c>
       <c r="S22">
-        <v>9.2389491817398799</v>
+        <v>9.23894918173988</v>
       </c>
       <c r="T22">
-        <v>9.8794745908699397</v>
+        <v>9.87947459086994</v>
       </c>
       <c r="U22">
         <v>5.47</v>
       </c>
       <c r="V22">
-        <v>6.2521059431524559</v>
+        <v>6.252105943152456</v>
       </c>
       <c r="W22">
         <v>10.52</v>
@@ -2086,7 +2083,7 @@
         <v>10.597364341085271</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>10.890268087855308</v>
       </c>
@@ -2094,7 +2091,7 @@
         <v>10.916366279069774</v>
       </c>
       <c r="C23">
-        <v>10.833178294573649</v>
+        <v>10.83317829457365</v>
       </c>
       <c r="D23">
         <v>10.924521963824294</v>
@@ -2133,25 +2130,25 @@
         <v>10.52</v>
       </c>
       <c r="P23">
-        <v>8.7322739018087852</v>
+        <v>8.732273901808785</v>
       </c>
       <c r="Q23">
         <v>7.101136950904392</v>
       </c>
       <c r="R23">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="S23">
-        <v>9.3281826012058566</v>
+        <v>9.328182601205857</v>
       </c>
       <c r="T23">
-        <v>9.9240913006029281</v>
+        <v>9.924091300602928</v>
       </c>
       <c r="U23">
         <v>5.47</v>
       </c>
       <c r="V23">
-        <v>6.2855684754521963</v>
+        <v>6.285568475452196</v>
       </c>
       <c r="W23">
         <v>10.52</v>
@@ -2160,7 +2157,7 @@
         <v>10.676589147286824</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>11.297196382428941</v>
       </c>
@@ -2207,16 +2204,16 @@
         <v>10.52</v>
       </c>
       <c r="P24">
-        <v>8.6175452196382434</v>
+        <v>8.617545219638243</v>
       </c>
       <c r="Q24">
         <v>7.043772609819122</v>
       </c>
       <c r="R24">
-        <v>6.2568863049095604</v>
+        <v>6.25688630490956</v>
       </c>
       <c r="S24">
-        <v>9.3750301464254946</v>
+        <v>9.375030146425495</v>
       </c>
       <c r="T24">
         <v>10.132515073212748</v>
@@ -2225,7 +2222,7 @@
         <v>5.47</v>
       </c>
       <c r="V24">
-        <v>6.2568863049095604</v>
+        <v>6.25688630490956</v>
       </c>
       <c r="W24">
         <v>10.89</v>
@@ -2234,75 +2231,75 @@
         <v>10.848682170542636</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24">
       <c r="A25">
-        <v>9.7121423537702611</v>
+        <v>9.712142353770261</v>
       </c>
       <c r="B25">
-        <v>9.6552008456659593</v>
+        <v>9.65520084566596</v>
       </c>
       <c r="C25">
-        <v>9.8367019027484162</v>
+        <v>9.836701902748416</v>
       </c>
       <c r="D25">
-        <v>9.6374066243833667</v>
+        <v>9.637406624383367</v>
       </c>
       <c r="E25">
-        <v>9.6445243128964062</v>
+        <v>9.644524312896406</v>
       </c>
       <c r="F25">
-        <v>9.6160535588442553</v>
+        <v>9.616053558844255</v>
       </c>
       <c r="G25">
-        <v>9.5982593375616645</v>
+        <v>9.598259337561664</v>
       </c>
       <c r="H25">
-        <v>9.5982593375616645</v>
+        <v>9.598259337561664</v>
       </c>
       <c r="I25">
-        <v>9.6196124031007759</v>
+        <v>9.619612403100776</v>
       </c>
       <c r="J25">
-        <v>9.5769062720225513</v>
+        <v>9.576906272022551</v>
       </c>
       <c r="K25">
         <v>9.491494009866102</v>
       </c>
       <c r="L25">
-        <v>9.5342001409443267</v>
+        <v>9.534200140944327</v>
       </c>
       <c r="M25">
         <v>9.491494009866102</v>
       </c>
       <c r="N25">
-        <v>9.2779633544749807</v>
+        <v>9.27796335447498</v>
       </c>
       <c r="O25">
         <v>10.52</v>
       </c>
       <c r="P25">
-        <v>9.0644326990838611</v>
+        <v>9.064432699083861</v>
       </c>
       <c r="Q25">
-        <v>7.2672163495419309</v>
+        <v>7.267216349541931</v>
       </c>
       <c r="R25">
-        <v>6.3686081747709657</v>
+        <v>6.368608174770966</v>
       </c>
       <c r="S25">
         <v>9.192551092318535</v>
       </c>
       <c r="T25">
-        <v>9.3206694855532071</v>
+        <v>9.320669485553207</v>
       </c>
       <c r="U25">
         <v>5.47</v>
       </c>
       <c r="V25">
-        <v>6.3686081747709657</v>
+        <v>6.368608174770966</v>
       </c>
       <c r="W25">
-        <v>9.4487878787878792</v>
+        <v>9.44878787878788</v>
       </c>
       <c r="X25">
         <v>10.178350951374208</v>
@@ -2314,16 +2311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1208D3F4-AE57-4F02-91E6-E7709094E863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X25"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2397,1784 +2392,1783 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="B2">
         <v>60.547459704376536</v>
       </c>
-      <c r="C2" s="1">
-        <v>-79.621286368948688</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2">
+        <v>-79.62128636894869</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
         <v>19.073826664572152</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>0.0</v>
+      </c>
+      <c r="J2">
+        <v>0.0</v>
+      </c>
+      <c r="K2">
+        <v>0.0</v>
+      </c>
+      <c r="L2">
+        <v>0.0</v>
+      </c>
+      <c r="M2">
+        <v>0.0</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>0.0</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>0.0</v>
+      </c>
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>0.0</v>
+      </c>
+      <c r="V2">
+        <v>0.0</v>
+      </c>
+      <c r="W2">
+        <v>0.0</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
         <v>-60.547459704376536</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3">
+        <v>0.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
         <v>13.247740516992664</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>47.299719187383872</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>79.621286368948688</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>47.29971918738387</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>0.0</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0.0</v>
+      </c>
+      <c r="L3">
+        <v>0.0</v>
+      </c>
+      <c r="M3">
+        <v>0.0</v>
+      </c>
+      <c r="N3">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>0.0</v>
+      </c>
+      <c r="R3">
+        <v>0.0</v>
+      </c>
+      <c r="S3">
+        <v>0.0</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
+        <v>0.0</v>
+      </c>
+      <c r="V3">
+        <v>0.0</v>
+      </c>
+      <c r="W3">
+        <v>0.0</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>79.62128636894869</v>
+      </c>
+      <c r="B4">
+        <v>0.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
         <v>120.49251710731056</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="J4">
+        <v>0.0</v>
+      </c>
+      <c r="K4">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>0.0</v>
+      </c>
+      <c r="M4">
+        <v>0.0</v>
+      </c>
+      <c r="N4">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>0.0</v>
+      </c>
+      <c r="R4">
+        <v>0.0</v>
+      </c>
+      <c r="S4">
+        <v>0.0</v>
+      </c>
+      <c r="T4">
+        <v>0.0</v>
+      </c>
+      <c r="U4">
+        <v>0.0</v>
+      </c>
+      <c r="V4">
+        <v>0.0</v>
+      </c>
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
         <v>-254.32234367625927</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>0.0</v>
+      </c>
+      <c r="B5">
         <v>-13.247740516992693</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
         <v>-32.923969483007305</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="J5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0.0</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>0.0</v>
+      </c>
+      <c r="N5">
+        <v>0.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>0.0</v>
+      </c>
+      <c r="Q5">
+        <v>0.0</v>
+      </c>
+      <c r="R5">
+        <v>0.0</v>
+      </c>
+      <c r="S5">
+        <v>0.0</v>
+      </c>
+      <c r="T5">
+        <v>0.0</v>
+      </c>
+      <c r="U5">
+        <v>0.0</v>
+      </c>
+      <c r="V5">
+        <v>0.0</v>
+      </c>
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
         <v>-19.073826664572135</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="B6">
+        <v>0.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="J6">
         <v>50.832991414572135</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-47.299719187383872</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="K6">
+        <v>0.0</v>
+      </c>
+      <c r="L6">
+        <v>0.0</v>
+      </c>
+      <c r="M6">
+        <v>0.0</v>
+      </c>
+      <c r="N6">
+        <v>0.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>0.0</v>
+      </c>
+      <c r="Q6">
+        <v>0.0</v>
+      </c>
+      <c r="R6">
+        <v>0.0</v>
+      </c>
+      <c r="S6">
+        <v>0.0</v>
+      </c>
+      <c r="T6">
+        <v>0.0</v>
+      </c>
+      <c r="U6">
+        <v>0.0</v>
+      </c>
+      <c r="V6">
+        <v>0.0</v>
+      </c>
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>0.0</v>
+      </c>
+      <c r="B7">
+        <v>-47.29971918738387</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="J7">
         <v>-37.940360812616134</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-78.136740000000003</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>78.136740000000003</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="K7">
+        <v>0.0</v>
+      </c>
+      <c r="L7">
+        <v>0.0</v>
+      </c>
+      <c r="M7">
+        <v>0.0</v>
+      </c>
+      <c r="N7">
+        <v>0.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7">
+        <v>0.0</v>
+      </c>
+      <c r="Q7">
+        <v>0.0</v>
+      </c>
+      <c r="R7">
+        <v>0.0</v>
+      </c>
+      <c r="S7">
+        <v>0.0</v>
+      </c>
+      <c r="T7">
+        <v>0.0</v>
+      </c>
+      <c r="U7">
+        <v>0.0</v>
+      </c>
+      <c r="V7">
+        <v>0.0</v>
+      </c>
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>0.0</v>
+      </c>
+      <c r="B8">
+        <v>0.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>-78.13674</v>
+      </c>
+      <c r="I8">
+        <v>0.0</v>
+      </c>
+      <c r="J8">
+        <v>0.0</v>
+      </c>
+      <c r="K8">
+        <v>0.0</v>
+      </c>
+      <c r="L8">
+        <v>0.0</v>
+      </c>
+      <c r="M8">
+        <v>0.0</v>
+      </c>
+      <c r="N8">
+        <v>0.0</v>
+      </c>
+      <c r="O8">
+        <v>0.0</v>
+      </c>
+      <c r="P8">
+        <v>0.0</v>
+      </c>
+      <c r="Q8">
+        <v>0.0</v>
+      </c>
+      <c r="R8">
+        <v>0.0</v>
+      </c>
+      <c r="S8">
+        <v>0.0</v>
+      </c>
+      <c r="T8">
+        <v>0.0</v>
+      </c>
+      <c r="U8">
+        <v>0.0</v>
+      </c>
+      <c r="V8">
+        <v>0.0</v>
+      </c>
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>0.0</v>
+      </c>
+      <c r="B9">
+        <v>0.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+      <c r="G9">
+        <v>78.13674</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+      <c r="I9">
         <v>-106.86121367039118</v>
       </c>
-      <c r="J9" s="1">
-        <v>-77.825626329608838</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="J9">
+        <v>-77.82562632960884</v>
+      </c>
+      <c r="K9">
+        <v>0.0</v>
+      </c>
+      <c r="L9">
+        <v>0.0</v>
+      </c>
+      <c r="M9">
+        <v>0.0</v>
+      </c>
+      <c r="N9">
+        <v>0.0</v>
+      </c>
+      <c r="O9">
+        <v>0.0</v>
+      </c>
+      <c r="P9">
+        <v>0.0</v>
+      </c>
+      <c r="Q9">
+        <v>0.0</v>
+      </c>
+      <c r="R9">
+        <v>0.0</v>
+      </c>
+      <c r="S9">
+        <v>0.0</v>
+      </c>
+      <c r="T9">
+        <v>0.0</v>
+      </c>
+      <c r="U9">
+        <v>0.0</v>
+      </c>
+      <c r="V9">
+        <v>0.0</v>
+      </c>
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>0.0</v>
+      </c>
+      <c r="B10">
+        <v>0.0</v>
+      </c>
+      <c r="C10">
         <v>-120.49251710731058</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>32.923969483007326</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0.0</v>
+      </c>
+      <c r="H10">
         <v>106.86121367039122</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-66.435564033082173</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-61.183037013005801</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="I10">
+        <v>0.0</v>
+      </c>
+      <c r="J10">
+        <v>0.0</v>
+      </c>
+      <c r="K10">
+        <v>-66.43556403308217</v>
+      </c>
+      <c r="L10">
+        <v>-61.1830370130058</v>
+      </c>
+      <c r="M10">
+        <v>0.0</v>
+      </c>
+      <c r="N10">
+        <v>0.0</v>
+      </c>
+      <c r="O10">
+        <v>0.0</v>
+      </c>
+      <c r="P10">
+        <v>0.0</v>
+      </c>
+      <c r="Q10">
+        <v>0.0</v>
+      </c>
+      <c r="R10">
+        <v>0.0</v>
+      </c>
+      <c r="S10">
+        <v>0.0</v>
+      </c>
+      <c r="T10">
+        <v>0.0</v>
+      </c>
+      <c r="U10">
+        <v>0.0</v>
+      </c>
+      <c r="V10">
+        <v>0.0</v>
+      </c>
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>0.0</v>
+      </c>
+      <c r="B11">
+        <v>0.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
         <v>-50.832991414572135</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>37.940360812616134</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>77.825626329608838</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-95.471151373864558</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-90.218624353788286</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>66.435564033082173</v>
-      </c>
-      <c r="J12" s="1">
-        <v>95.471151373864558</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>7.3771436733589582</v>
-      </c>
-      <c r="N12" s="1">
-        <v>-169.28385908030569</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>61.183037013005801</v>
-      </c>
-      <c r="J13" s="1">
-        <v>90.218624353788186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="G11">
+        <v>0.0</v>
+      </c>
+      <c r="H11">
+        <v>77.82562632960884</v>
+      </c>
+      <c r="I11">
+        <v>0.0</v>
+      </c>
+      <c r="J11">
+        <v>0.0</v>
+      </c>
+      <c r="K11">
+        <v>-95.47115137386456</v>
+      </c>
+      <c r="L11">
+        <v>-90.21862435378829</v>
+      </c>
+      <c r="M11">
+        <v>0.0</v>
+      </c>
+      <c r="N11">
+        <v>0.0</v>
+      </c>
+      <c r="O11">
+        <v>0.0</v>
+      </c>
+      <c r="P11">
+        <v>0.0</v>
+      </c>
+      <c r="Q11">
+        <v>0.0</v>
+      </c>
+      <c r="R11">
+        <v>0.0</v>
+      </c>
+      <c r="S11">
+        <v>0.0</v>
+      </c>
+      <c r="T11">
+        <v>0.0</v>
+      </c>
+      <c r="U11">
+        <v>0.0</v>
+      </c>
+      <c r="V11">
+        <v>0.0</v>
+      </c>
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>0.0</v>
+      </c>
+      <c r="B12">
+        <v>0.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+      <c r="F12">
+        <v>0.0</v>
+      </c>
+      <c r="G12">
+        <v>0.0</v>
+      </c>
+      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="I12">
+        <v>66.43556403308217</v>
+      </c>
+      <c r="J12">
+        <v>95.47115137386456</v>
+      </c>
+      <c r="K12">
+        <v>0.0</v>
+      </c>
+      <c r="L12">
+        <v>0.0</v>
+      </c>
+      <c r="M12">
+        <v>7.377143673358958</v>
+      </c>
+      <c r="N12">
+        <v>-169.2838590803057</v>
+      </c>
+      <c r="O12">
+        <v>0.0</v>
+      </c>
+      <c r="P12">
+        <v>0.0</v>
+      </c>
+      <c r="Q12">
+        <v>0.0</v>
+      </c>
+      <c r="R12">
+        <v>0.0</v>
+      </c>
+      <c r="S12">
+        <v>0.0</v>
+      </c>
+      <c r="T12">
+        <v>0.0</v>
+      </c>
+      <c r="U12">
+        <v>0.0</v>
+      </c>
+      <c r="V12">
+        <v>0.0</v>
+      </c>
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>0.0</v>
+      </c>
+      <c r="B13">
+        <v>0.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+      <c r="F13">
+        <v>0.0</v>
+      </c>
+      <c r="G13">
+        <v>0.0</v>
+      </c>
+      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="I13">
+        <v>61.1830370130058</v>
+      </c>
+      <c r="J13">
+        <v>90.21862435378819</v>
+      </c>
+      <c r="K13">
+        <v>0.0</v>
+      </c>
+      <c r="L13">
+        <v>0.0</v>
+      </c>
+      <c r="M13">
         <v>2.1246166532824446</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
+      <c r="N13">
+        <v>0.0</v>
+      </c>
+      <c r="O13">
+        <v>0.0</v>
+      </c>
+      <c r="P13">
+        <v>0.0</v>
+      </c>
+      <c r="Q13">
+        <v>0.0</v>
+      </c>
+      <c r="R13">
+        <v>0.0</v>
+      </c>
+      <c r="S13">
+        <v>0.0</v>
+      </c>
+      <c r="T13">
+        <v>0.0</v>
+      </c>
+      <c r="U13">
+        <v>0.0</v>
+      </c>
+      <c r="V13">
+        <v>0.0</v>
+      </c>
+      <c r="W13">
         <v>-153.52627802007643</v>
       </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="X13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>0.0</v>
+      </c>
+      <c r="B14">
+        <v>0.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+      <c r="F14">
+        <v>0.0</v>
+      </c>
+      <c r="G14">
+        <v>0.0</v>
+      </c>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="I14">
+        <v>0.0</v>
+      </c>
+      <c r="J14">
+        <v>0.0</v>
+      </c>
+      <c r="K14">
         <v>-7.377143673358777</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>-2.1246166532823985</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
+      <c r="M14">
+        <v>0.0</v>
+      </c>
+      <c r="N14">
+        <v>0.0</v>
+      </c>
+      <c r="O14">
+        <v>0.0</v>
+      </c>
+      <c r="P14">
+        <v>0.0</v>
+      </c>
+      <c r="Q14">
+        <v>0.0</v>
+      </c>
+      <c r="R14">
+        <v>0.0</v>
+      </c>
+      <c r="S14">
+        <v>0.0</v>
+      </c>
+      <c r="T14">
+        <v>0.0</v>
+      </c>
+      <c r="U14">
+        <v>0.0</v>
+      </c>
+      <c r="V14">
+        <v>0.0</v>
+      </c>
+      <c r="W14">
         <v>-155.65089467335883</v>
       </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>169.28385908030569</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>-250</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="X14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>0.0</v>
+      </c>
+      <c r="B15">
+        <v>0.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+      <c r="F15">
+        <v>0.0</v>
+      </c>
+      <c r="G15">
+        <v>0.0</v>
+      </c>
+      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="I15">
+        <v>0.0</v>
+      </c>
+      <c r="J15">
+        <v>0.0</v>
+      </c>
+      <c r="K15">
+        <v>169.2838590803057</v>
+      </c>
+      <c r="L15">
+        <v>0.0</v>
+      </c>
+      <c r="M15">
+        <v>0.0</v>
+      </c>
+      <c r="N15">
+        <v>0.0</v>
+      </c>
+      <c r="O15">
+        <v>0.0</v>
+      </c>
+      <c r="P15">
+        <v>-250.0</v>
+      </c>
+      <c r="Q15">
+        <v>0.0</v>
+      </c>
+      <c r="R15">
+        <v>0.0</v>
+      </c>
+      <c r="S15">
+        <v>0.0</v>
+      </c>
+      <c r="T15">
+        <v>0.0</v>
+      </c>
+      <c r="U15">
+        <v>0.0</v>
+      </c>
+      <c r="V15">
+        <v>0.0</v>
+      </c>
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>0.0</v>
+      </c>
+      <c r="B16">
+        <v>0.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+      <c r="F16">
+        <v>0.0</v>
+      </c>
+      <c r="G16">
+        <v>0.0</v>
+      </c>
+      <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="I16">
+        <v>0.0</v>
+      </c>
+      <c r="J16">
+        <v>0.0</v>
+      </c>
+      <c r="K16">
+        <v>0.0</v>
+      </c>
+      <c r="L16">
+        <v>0.0</v>
+      </c>
+      <c r="M16">
+        <v>0.0</v>
+      </c>
+      <c r="N16">
+        <v>0.0</v>
+      </c>
+      <c r="O16">
+        <v>0.0</v>
+      </c>
+      <c r="P16">
         <v>143.4177813464413</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
+      <c r="Q16">
+        <v>0.0</v>
+      </c>
+      <c r="R16">
+        <v>0.0</v>
+      </c>
+      <c r="S16">
+        <v>0.0</v>
+      </c>
+      <c r="T16">
+        <v>0.0</v>
+      </c>
+      <c r="U16">
         <v>-397.74012502270057</v>
       </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
+      <c r="V16">
+        <v>0.0</v>
+      </c>
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
         <v>254.32234367625927</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>0.0</v>
+      </c>
+      <c r="B17">
+        <v>0.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+      <c r="F17">
+        <v>0.0</v>
+      </c>
+      <c r="G17">
+        <v>0.0</v>
+      </c>
+      <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="I17">
+        <v>0.0</v>
+      </c>
+      <c r="J17">
+        <v>0.0</v>
+      </c>
+      <c r="K17">
+        <v>0.0</v>
+      </c>
+      <c r="L17">
+        <v>0.0</v>
+      </c>
+      <c r="M17">
+        <v>0.0</v>
+      </c>
+      <c r="N17">
         <v>250.00000000000097</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>-143.4177813464413</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="P17">
+        <v>0.0</v>
+      </c>
+      <c r="Q17">
         <v>-356.83961666699486</v>
       </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="R17">
+        <v>0.0</v>
+      </c>
+      <c r="S17">
         <v>192.7431876934352</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="T17">
+        <v>0.0</v>
+      </c>
+      <c r="U17">
+        <v>0.0</v>
+      </c>
+      <c r="V17">
+        <v>0.0</v>
+      </c>
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>0.0</v>
+      </c>
+      <c r="B18">
+        <v>0.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+      <c r="F18">
+        <v>0.0</v>
+      </c>
+      <c r="G18">
+        <v>0.0</v>
+      </c>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="I18">
+        <v>0.0</v>
+      </c>
+      <c r="J18">
+        <v>0.0</v>
+      </c>
+      <c r="K18">
+        <v>0.0</v>
+      </c>
+      <c r="L18">
+        <v>0.0</v>
+      </c>
+      <c r="M18">
+        <v>0.0</v>
+      </c>
+      <c r="N18">
+        <v>0.0</v>
+      </c>
+      <c r="O18">
+        <v>0.0</v>
+      </c>
+      <c r="P18">
         <v>356.83961666699486</v>
       </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="Q18">
+        <v>0.0</v>
+      </c>
+      <c r="R18">
         <v>-114.68047181592112</v>
       </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="S18">
+        <v>0.0</v>
+      </c>
+      <c r="T18">
+        <v>0.0</v>
+      </c>
+      <c r="U18">
+        <v>0.0</v>
+      </c>
+      <c r="V18">
         <v>-242.15914485107373</v>
       </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19">
+        <v>0.0</v>
+      </c>
+      <c r="B19">
+        <v>0.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+      <c r="F19">
+        <v>0.0</v>
+      </c>
+      <c r="G19">
+        <v>0.0</v>
+      </c>
+      <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="I19">
+        <v>0.0</v>
+      </c>
+      <c r="J19">
+        <v>0.0</v>
+      </c>
+      <c r="K19">
+        <v>0.0</v>
+      </c>
+      <c r="L19">
+        <v>0.0</v>
+      </c>
+      <c r="M19">
+        <v>0.0</v>
+      </c>
+      <c r="N19">
+        <v>0.0</v>
+      </c>
+      <c r="O19">
+        <v>0.0</v>
+      </c>
+      <c r="P19">
+        <v>0.0</v>
+      </c>
+      <c r="Q19">
         <v>114.68047181592112</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>-69.637817886225889</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="R19">
+        <v>0.0</v>
+      </c>
+      <c r="S19">
+        <v>0.0</v>
+      </c>
+      <c r="T19">
+        <v>0.0</v>
+      </c>
+      <c r="U19">
+        <v>-69.63781788622589</v>
+      </c>
+      <c r="V19">
+        <v>0.0</v>
+      </c>
+      <c r="W19">
+        <v>0.0</v>
+      </c>
+      <c r="X19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20">
+        <v>0.0</v>
+      </c>
+      <c r="B20">
+        <v>0.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+      <c r="F20">
+        <v>0.0</v>
+      </c>
+      <c r="G20">
+        <v>0.0</v>
+      </c>
+      <c r="H20">
+        <v>0.0</v>
+      </c>
+      <c r="I20">
+        <v>0.0</v>
+      </c>
+      <c r="J20">
+        <v>0.0</v>
+      </c>
+      <c r="K20">
+        <v>0.0</v>
+      </c>
+      <c r="L20">
+        <v>0.0</v>
+      </c>
+      <c r="M20">
+        <v>0.0</v>
+      </c>
+      <c r="N20">
+        <v>0.0</v>
+      </c>
+      <c r="O20">
+        <v>0.0</v>
+      </c>
+      <c r="P20">
         <v>-192.74318769343523</v>
       </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>79.089747693435228</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>-79.089747693435214</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>-0.82282730656478975</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
+      <c r="Q20">
+        <v>0.0</v>
+      </c>
+      <c r="R20">
+        <v>0.0</v>
+      </c>
+      <c r="S20">
+        <v>0.0</v>
+      </c>
+      <c r="T20">
+        <v>79.08974769343523</v>
+      </c>
+      <c r="U20">
+        <v>0.0</v>
+      </c>
+      <c r="V20">
+        <v>0.0</v>
+      </c>
+      <c r="W20">
+        <v>0.0</v>
+      </c>
+      <c r="X20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21">
+        <v>0.0</v>
+      </c>
+      <c r="B21">
+        <v>0.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+      <c r="F21">
+        <v>0.0</v>
+      </c>
+      <c r="G21">
+        <v>0.0</v>
+      </c>
+      <c r="H21">
+        <v>0.0</v>
+      </c>
+      <c r="I21">
+        <v>0.0</v>
+      </c>
+      <c r="J21">
+        <v>0.0</v>
+      </c>
+      <c r="K21">
+        <v>0.0</v>
+      </c>
+      <c r="L21">
+        <v>0.0</v>
+      </c>
+      <c r="M21">
+        <v>0.0</v>
+      </c>
+      <c r="N21">
+        <v>0.0</v>
+      </c>
+      <c r="O21">
+        <v>0.0</v>
+      </c>
+      <c r="P21">
+        <v>0.0</v>
+      </c>
+      <c r="Q21">
+        <v>0.0</v>
+      </c>
+      <c r="R21">
+        <v>0.0</v>
+      </c>
+      <c r="S21">
+        <v>-79.08974769343521</v>
+      </c>
+      <c r="T21">
+        <v>0.0</v>
+      </c>
+      <c r="U21">
+        <v>0.0</v>
+      </c>
+      <c r="V21">
+        <v>0.0</v>
+      </c>
+      <c r="W21">
+        <v>-0.8228273065647898</v>
+      </c>
+      <c r="X21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>0.0</v>
+      </c>
+      <c r="B22">
+        <v>0.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+      <c r="F22">
+        <v>0.0</v>
+      </c>
+      <c r="G22">
+        <v>0.0</v>
+      </c>
+      <c r="H22">
+        <v>0.0</v>
+      </c>
+      <c r="I22">
+        <v>0.0</v>
+      </c>
+      <c r="J22">
+        <v>0.0</v>
+      </c>
+      <c r="K22">
+        <v>0.0</v>
+      </c>
+      <c r="L22">
+        <v>0.0</v>
+      </c>
+      <c r="M22">
+        <v>0.0</v>
+      </c>
+      <c r="N22">
+        <v>0.0</v>
+      </c>
+      <c r="O22">
         <v>397.74012502270057</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
+      <c r="P22">
+        <v>0.0</v>
+      </c>
+      <c r="Q22">
+        <v>0.0</v>
+      </c>
+      <c r="R22">
         <v>69.63781788622606</v>
       </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>-57.840855148926607</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>242.15914485107351</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="S22">
+        <v>0.0</v>
+      </c>
+      <c r="T22">
+        <v>0.0</v>
+      </c>
+      <c r="U22">
+        <v>0.0</v>
+      </c>
+      <c r="V22">
+        <v>-57.84085514892661</v>
+      </c>
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>0.0</v>
+      </c>
+      <c r="B23">
+        <v>0.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+      <c r="F23">
+        <v>0.0</v>
+      </c>
+      <c r="G23">
+        <v>0.0</v>
+      </c>
+      <c r="H23">
+        <v>0.0</v>
+      </c>
+      <c r="I23">
+        <v>0.0</v>
+      </c>
+      <c r="J23">
+        <v>0.0</v>
+      </c>
+      <c r="K23">
+        <v>0.0</v>
+      </c>
+      <c r="L23">
+        <v>0.0</v>
+      </c>
+      <c r="M23">
+        <v>0.0</v>
+      </c>
+      <c r="N23">
+        <v>0.0</v>
+      </c>
+      <c r="O23">
+        <v>0.0</v>
+      </c>
+      <c r="P23">
+        <v>0.0</v>
+      </c>
+      <c r="Q23">
+        <v>242.1591448510735</v>
+      </c>
+      <c r="R23">
+        <v>0.0</v>
+      </c>
+      <c r="S23">
+        <v>0.0</v>
+      </c>
+      <c r="T23">
+        <v>0.0</v>
+      </c>
+      <c r="U23">
         <v>57.840855148926494</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="V23">
+        <v>0.0</v>
+      </c>
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>0.0</v>
+      </c>
+      <c r="B24">
+        <v>0.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+      <c r="F24">
+        <v>0.0</v>
+      </c>
+      <c r="G24">
+        <v>0.0</v>
+      </c>
+      <c r="H24">
+        <v>0.0</v>
+      </c>
+      <c r="I24">
+        <v>0.0</v>
+      </c>
+      <c r="J24">
+        <v>0.0</v>
+      </c>
+      <c r="K24">
+        <v>0.0</v>
+      </c>
+      <c r="L24">
         <v>153.52627802007643</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>155.65089467335875</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.82282730656478975</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="N24">
+        <v>0.0</v>
+      </c>
+      <c r="O24">
+        <v>0.0</v>
+      </c>
+      <c r="P24">
+        <v>0.0</v>
+      </c>
+      <c r="Q24">
+        <v>0.0</v>
+      </c>
+      <c r="R24">
+        <v>0.0</v>
+      </c>
+      <c r="S24">
+        <v>0.0</v>
+      </c>
+      <c r="T24">
+        <v>0.8228273065647898</v>
+      </c>
+      <c r="U24">
+        <v>0.0</v>
+      </c>
+      <c r="V24">
+        <v>0.0</v>
+      </c>
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>0.0</v>
+      </c>
+      <c r="B25">
+        <v>0.0</v>
+      </c>
+      <c r="C25">
         <v>254.32234367625938</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+      <c r="F25">
+        <v>0.0</v>
+      </c>
+      <c r="G25">
+        <v>0.0</v>
+      </c>
+      <c r="H25">
+        <v>0.0</v>
+      </c>
+      <c r="I25">
+        <v>0.0</v>
+      </c>
+      <c r="J25">
+        <v>0.0</v>
+      </c>
+      <c r="K25">
+        <v>0.0</v>
+      </c>
+      <c r="L25">
+        <v>0.0</v>
+      </c>
+      <c r="M25">
+        <v>0.0</v>
+      </c>
+      <c r="N25">
+        <v>0.0</v>
+      </c>
+      <c r="O25">
         <v>-254.32234367625938</v>
       </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
+      <c r="P25">
+        <v>0.0</v>
+      </c>
+      <c r="Q25">
+        <v>0.0</v>
+      </c>
+      <c r="R25">
+        <v>0.0</v>
+      </c>
+      <c r="S25">
+        <v>0.0</v>
+      </c>
+      <c r="T25">
+        <v>0.0</v>
+      </c>
+      <c r="U25">
+        <v>0.0</v>
+      </c>
+      <c r="V25">
+        <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results_step3_nodal.xlsx
+++ b/results_step3_nodal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601c3f8e6edde6a/Documents/Ms_Sustainable_Energy/46755_Renewables_in_electricity_markets/REIM_Github/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="115_{20B9AC32-A64E-4A72-B5B8-7FDF54F81816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EE6DEA-93EE-4596-9878-5001ED2B8880}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DA_Prices" sheetId="1" r:id="rId1"/>
-    <sheet name="Voltage_angle" r:id="rId5" sheetId="2"/>
+    <sheet name="Voltage_angle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>N1</t>
   </si>
@@ -133,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57548892-2C18-40A5-B3C9-21B7701366C8}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +530,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11.315366748166284</v>
       </c>
       <c r="B2">
-        <v>11.63751833740833</v>
+        <v>11.637518337408331</v>
       </c>
       <c r="C2">
         <v>10.610660146699281</v>
@@ -549,16 +550,16 @@
         <v>11.858997555012236</v>
       </c>
       <c r="G2">
-        <v>11.95966992665037</v>
+        <v>11.959669926650371</v>
       </c>
       <c r="H2">
-        <v>11.95966992665037</v>
+        <v>11.959669926650371</v>
       </c>
       <c r="I2">
         <v>11.8388630806846</v>
       </c>
       <c r="J2">
-        <v>12.08047677261614</v>
+        <v>12.080476772616141</v>
       </c>
       <c r="K2">
         <v>13.209349633251833</v>
@@ -570,25 +571,25 @@
         <v>11.91805867970659</v>
       </c>
       <c r="N2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>6.744841075794625</v>
+        <v>6.7448410757946249</v>
       </c>
       <c r="P2">
-        <v>5.29515892420538</v>
+        <v>5.2951589242053796</v>
       </c>
       <c r="Q2">
-        <v>5.778386308068458</v>
+        <v>5.7783863080684581</v>
       </c>
       <c r="R2">
         <v>6.02</v>
       </c>
       <c r="S2">
-        <v>7.15289975550122</v>
+        <v>7.1528997555012204</v>
       </c>
       <c r="T2">
-        <v>9.010640586797061</v>
+        <v>9.0106405867970611</v>
       </c>
       <c r="U2">
         <v>6.261613691931541</v>
@@ -600,10 +601,10 @@
         <v>10.868381418092902</v>
       </c>
       <c r="X2">
-        <v>8.677750611246953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>8.6777506112469531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10.854257602862262</v>
       </c>
@@ -647,16 +648,16 @@
         <v>10.303184257602865</v>
       </c>
       <c r="O3">
-        <v>11.87961538461538</v>
+        <v>11.879615384615381</v>
       </c>
       <c r="P3">
-        <v>10.03216457960644</v>
+        <v>10.032164579606439</v>
       </c>
       <c r="Q3">
-        <v>7.75108228980322</v>
+        <v>7.7510822898032199</v>
       </c>
       <c r="R3">
-        <v>6.61054114490161</v>
+        <v>6.6105411449016103</v>
       </c>
       <c r="S3">
         <v>10.194776386404293</v>
@@ -668,7 +669,7 @@
         <v>5.47</v>
       </c>
       <c r="V3">
-        <v>6.61054114490161</v>
+        <v>6.6105411449016103</v>
       </c>
       <c r="W3">
         <v>10.52</v>
@@ -677,7 +678,7 @@
         <v>11.445983899821103</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10.875962264150942</v>
       </c>
@@ -718,22 +719,22 @@
         <v>10.727018867924535</v>
       </c>
       <c r="N4">
-        <v>11.27018867924533</v>
+        <v>11.270188679245329</v>
       </c>
       <c r="O4">
         <v>11.060132075471701</v>
       </c>
       <c r="P4">
-        <v>9.248679245283</v>
+        <v>9.2486792452830002</v>
       </c>
       <c r="Q4">
         <v>7.3593396226414995</v>
       </c>
       <c r="R4">
-        <v>6.414669811320749</v>
+        <v>6.4146698113207492</v>
       </c>
       <c r="S4">
-        <v>9.672452830188668</v>
+        <v>9.6724528301886679</v>
       </c>
       <c r="T4">
         <v>10.096226415094334</v>
@@ -742,21 +743,21 @@
         <v>5.47</v>
       </c>
       <c r="V4">
-        <v>6.414669811320749</v>
+        <v>6.4146698113207492</v>
       </c>
       <c r="W4">
         <v>10.52</v>
       </c>
       <c r="X4">
-        <v>10.98224528301887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>10.982245283018869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11.297196382428915</v>
       </c>
       <c r="B5">
-        <v>11.35197674418603</v>
+        <v>11.351976744186031</v>
       </c>
       <c r="C5">
         <v>11.177364341085259</v>
@@ -798,25 +799,25 @@
         <v>10.52</v>
       </c>
       <c r="P5">
-        <v>8.617545219638249</v>
+        <v>8.6175452196382487</v>
       </c>
       <c r="Q5">
-        <v>7.043772609819124</v>
+        <v>7.0437726098191238</v>
       </c>
       <c r="R5">
-        <v>6.256886304909562</v>
+        <v>6.2568863049095622</v>
       </c>
       <c r="S5">
-        <v>9.375030146425498</v>
+        <v>9.3750301464254981</v>
       </c>
       <c r="T5">
-        <v>10.13251507321275</v>
+        <v>10.132515073212749</v>
       </c>
       <c r="U5">
         <v>5.47</v>
       </c>
       <c r="V5">
-        <v>6.256886304909562</v>
+        <v>6.2568863049095622</v>
       </c>
       <c r="W5">
         <v>10.89</v>
@@ -825,7 +826,7 @@
         <v>10.848682170542629</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10.890268087855276</v>
       </c>
@@ -872,34 +873,34 @@
         <v>10.52</v>
       </c>
       <c r="P6">
-        <v>8.732273901808787</v>
+        <v>8.7322739018087869</v>
       </c>
       <c r="Q6">
-        <v>7.101136950904394</v>
+        <v>7.1011369509043938</v>
       </c>
       <c r="R6">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S6">
-        <v>9.328182601205857</v>
+        <v>9.3281826012058566</v>
       </c>
       <c r="T6">
-        <v>9.924091300602928</v>
+        <v>9.9240913006029281</v>
       </c>
       <c r="U6">
         <v>5.47</v>
       </c>
       <c r="V6">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W6">
         <v>10.52</v>
       </c>
       <c r="X6">
-        <v>10.67658914728682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>10.676589147286821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10.890268087855297</v>
       </c>
@@ -913,7 +914,7 @@
         <v>10.924521963824288</v>
       </c>
       <c r="E7">
-        <v>10.92125968992248</v>
+        <v>10.921259689922479</v>
       </c>
       <c r="F7">
         <v>10.934308785529716</v>
@@ -946,108 +947,108 @@
         <v>10.52</v>
       </c>
       <c r="P7">
-        <v>8.732273901808787</v>
+        <v>8.7322739018087869</v>
       </c>
       <c r="Q7">
-        <v>7.101136950904394</v>
+        <v>7.1011369509043938</v>
       </c>
       <c r="R7">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S7">
-        <v>9.328182601205857</v>
+        <v>9.3281826012058566</v>
       </c>
       <c r="T7">
-        <v>9.924091300602928</v>
+        <v>9.9240913006029281</v>
       </c>
       <c r="U7">
         <v>5.47</v>
       </c>
       <c r="V7">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W7">
         <v>10.52</v>
       </c>
       <c r="X7">
-        <v>10.67658914728682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>10.676589147286821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>9.712142353770247</v>
+        <v>9.7121423537702469</v>
       </c>
       <c r="B8">
-        <v>9.655200845665952</v>
+        <v>9.6552008456659522</v>
       </c>
       <c r="C8">
-        <v>9.836701902748413</v>
+        <v>9.8367019027484126</v>
       </c>
       <c r="D8">
-        <v>9.637406624383363</v>
+        <v>9.6374066243833632</v>
       </c>
       <c r="E8">
-        <v>9.644524312896399</v>
+        <v>9.6445243128963991</v>
       </c>
       <c r="F8">
-        <v>9.616053558844252</v>
+        <v>9.6160535588442517</v>
       </c>
       <c r="G8">
-        <v>9.598259337561661</v>
+        <v>9.5982593375616609</v>
       </c>
       <c r="H8">
-        <v>9.598259337561661</v>
+        <v>9.5982593375616609</v>
       </c>
       <c r="I8">
-        <v>9.619612403100772</v>
+        <v>9.6196124031007724</v>
       </c>
       <c r="J8">
-        <v>9.576906272022551</v>
+        <v>9.5769062720225513</v>
       </c>
       <c r="K8">
-        <v>9.491494009866106</v>
+        <v>9.4914940098661056</v>
       </c>
       <c r="L8">
-        <v>9.534200140944328</v>
+        <v>9.5342001409443284</v>
       </c>
       <c r="M8">
         <v>9.491494009866102</v>
       </c>
       <c r="N8">
-        <v>9.27796335447498</v>
+        <v>9.2779633544749807</v>
       </c>
       <c r="O8">
         <v>10.52</v>
       </c>
       <c r="P8">
-        <v>9.064432699083863</v>
+        <v>9.0644326990838628</v>
       </c>
       <c r="Q8">
-        <v>7.267216349541931</v>
+        <v>7.2672163495419309</v>
       </c>
       <c r="R8">
-        <v>6.368608174770966</v>
+        <v>6.3686081747709657</v>
       </c>
       <c r="S8">
         <v>9.192551092318535</v>
       </c>
       <c r="T8">
-        <v>9.320669485553205</v>
+        <v>9.3206694855532053</v>
       </c>
       <c r="U8">
         <v>5.47</v>
       </c>
       <c r="V8">
-        <v>6.368608174770966</v>
+        <v>6.3686081747709657</v>
       </c>
       <c r="W8">
-        <v>9.448787878787876</v>
+        <v>9.4487878787878756</v>
       </c>
       <c r="X8">
         <v>10.178350951374206</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10.890268087855276</v>
       </c>
@@ -1067,10 +1068,10 @@
         <v>10.93430878552971</v>
       </c>
       <c r="G9">
-        <v>10.94246447028424</v>
+        <v>10.942464470284239</v>
       </c>
       <c r="H9">
-        <v>10.94246447028424</v>
+        <v>10.942464470284239</v>
       </c>
       <c r="I9">
         <v>10.932677648578814</v>
@@ -1094,34 +1095,34 @@
         <v>10.52</v>
       </c>
       <c r="P9">
-        <v>8.732273901808787</v>
+        <v>8.7322739018087869</v>
       </c>
       <c r="Q9">
-        <v>7.101136950904394</v>
+        <v>7.1011369509043938</v>
       </c>
       <c r="R9">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S9">
-        <v>9.328182601205857</v>
+        <v>9.3281826012058566</v>
       </c>
       <c r="T9">
-        <v>9.924091300602928</v>
+        <v>9.9240913006029281</v>
       </c>
       <c r="U9">
         <v>5.47</v>
       </c>
       <c r="V9">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W9">
         <v>10.52</v>
       </c>
       <c r="X9">
-        <v>10.67658914728682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>10.676589147286821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10.890268087855304</v>
       </c>
@@ -1159,34 +1160,34 @@
         <v>10.80816752799311</v>
       </c>
       <c r="M10">
-        <v>10.82774117140396</v>
+        <v>10.827741171403961</v>
       </c>
       <c r="N10">
-        <v>11.90755383290266</v>
+        <v>11.907553832902661</v>
       </c>
       <c r="O10">
         <v>10.52</v>
       </c>
       <c r="P10">
-        <v>8.732273901808785</v>
+        <v>8.7322739018087852</v>
       </c>
       <c r="Q10">
         <v>7.101136950904392</v>
       </c>
       <c r="R10">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S10">
-        <v>9.328182601205857</v>
+        <v>9.3281826012058566</v>
       </c>
       <c r="T10">
-        <v>9.924091300602928</v>
+        <v>9.9240913006029281</v>
       </c>
       <c r="U10">
         <v>5.47</v>
       </c>
       <c r="V10">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W10">
         <v>10.52</v>
@@ -1195,7 +1196,7 @@
         <v>10.676589147286823</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10.890268087855304</v>
       </c>
@@ -1233,34 +1234,34 @@
         <v>10.80816752799311</v>
       </c>
       <c r="M11">
-        <v>10.82774117140396</v>
+        <v>10.827741171403961</v>
       </c>
       <c r="N11">
-        <v>11.90755383290266</v>
+        <v>11.907553832902661</v>
       </c>
       <c r="O11">
         <v>10.52</v>
       </c>
       <c r="P11">
-        <v>8.732273901808785</v>
+        <v>8.7322739018087852</v>
       </c>
       <c r="Q11">
         <v>7.101136950904392</v>
       </c>
       <c r="R11">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S11">
-        <v>9.328182601205857</v>
+        <v>9.3281826012058566</v>
       </c>
       <c r="T11">
-        <v>9.924091300602928</v>
+        <v>9.9240913006029281</v>
       </c>
       <c r="U11">
         <v>5.47</v>
       </c>
       <c r="V11">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W11">
         <v>10.52</v>
@@ -1269,24 +1270,24 @@
         <v>10.676589147286823</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>8.06643564356435</v>
+        <v>8.0664356435643505</v>
       </c>
       <c r="B12">
-        <v>8.031584158415836</v>
+        <v>8.0315841584158356</v>
       </c>
       <c r="C12">
-        <v>8.142673267326728</v>
+        <v>8.1426732673267281</v>
       </c>
       <c r="D12">
-        <v>8.020693069306922</v>
+        <v>8.0206930693069225</v>
       </c>
       <c r="E12">
-        <v>8.025049504950488</v>
+        <v>8.0250495049504877</v>
       </c>
       <c r="F12">
-        <v>8.00762376237623</v>
+        <v>8.0076237623762303</v>
       </c>
       <c r="G12">
         <v>7.996732673267319</v>
@@ -1295,28 +1296,28 @@
         <v>7.996732673267319</v>
       </c>
       <c r="I12">
-        <v>8.009801980198011</v>
+        <v>8.0098019801980112</v>
       </c>
       <c r="J12">
-        <v>7.983663366336627</v>
+        <v>7.9836633663366268</v>
       </c>
       <c r="K12">
         <v>7.9313861386138536</v>
       </c>
       <c r="L12">
-        <v>7.957524752475239</v>
+        <v>7.9575247524752388</v>
       </c>
       <c r="M12">
-        <v>7.931386138613853</v>
+        <v>7.9313861386138527</v>
       </c>
       <c r="N12">
-        <v>7.800693069306925</v>
+        <v>7.8006930693069254</v>
       </c>
       <c r="O12">
-        <v>8.560891089108907</v>
+        <v>8.5608910891089067</v>
       </c>
       <c r="P12">
-        <v>7.669999999999996</v>
+        <v>7.6699999999999964</v>
       </c>
       <c r="Q12">
         <v>6.5699999999999985</v>
@@ -1328,7 +1329,7 @@
         <v>7.748415841584154</v>
       </c>
       <c r="T12">
-        <v>7.826831683168311</v>
+        <v>7.8268316831683107</v>
       </c>
       <c r="U12">
         <v>5.47</v>
@@ -1337,13 +1338,13 @@
         <v>6.02</v>
       </c>
       <c r="W12">
-        <v>7.905247524752467</v>
+        <v>7.9052475247524674</v>
       </c>
       <c r="X12">
-        <v>8.351782178217817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>8.3517821782178174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11.336342449922963</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>7.22</v>
       </c>
       <c r="P13">
-        <v>5.695500770416025</v>
+        <v>5.6955007704160252</v>
       </c>
       <c r="Q13">
         <v>5.9118335901386745</v>
@@ -1399,13 +1400,13 @@
         <v>6.02</v>
       </c>
       <c r="S13">
-        <v>7.427000513610683</v>
+        <v>7.4270005136106834</v>
       </c>
       <c r="T13">
-        <v>9.158500256805342</v>
+        <v>9.1585002568053415</v>
       </c>
       <c r="U13">
-        <v>6.128166409861325</v>
+        <v>6.1281664098613247</v>
       </c>
       <c r="V13">
         <v>6.02</v>
@@ -1414,10 +1415,10 @@
         <v>10.89</v>
       </c>
       <c r="X13">
-        <v>8.960832049306626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>8.9608320493066262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13.135637860082294</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>13.32</v>
       </c>
       <c r="C14">
-        <v>12.73234567901235</v>
+        <v>12.732345679012351</v>
       </c>
       <c r="D14">
         <v>13.377613168724292</v>
@@ -1464,16 +1465,16 @@
         <v>10.52</v>
       </c>
       <c r="P14">
-        <v>8.099218106995883</v>
+        <v>8.0992181069958828</v>
       </c>
       <c r="Q14">
-        <v>6.784609053497942</v>
+        <v>6.7846090534979417</v>
       </c>
       <c r="R14">
-        <v>6.12730452674897</v>
+        <v>6.1273045267489703</v>
       </c>
       <c r="S14">
-        <v>9.029478737997255</v>
+        <v>9.0294787379972554</v>
       </c>
       <c r="T14">
         <v>9.959739368998628</v>
@@ -1482,7 +1483,7 @@
         <v>5.47</v>
       </c>
       <c r="V14">
-        <v>6.12730452674897</v>
+        <v>6.1273045267489703</v>
       </c>
       <c r="W14">
         <v>10.89</v>
@@ -1491,9 +1492,9 @@
         <v>11.626172839506175</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>10.89026808785528</v>
+        <v>10.890268087855279</v>
       </c>
       <c r="B15">
         <v>10.916366279069756</v>
@@ -1532,31 +1533,31 @@
         <v>10.827741171403963</v>
       </c>
       <c r="N15">
-        <v>11.90755383290266</v>
+        <v>11.907553832902661</v>
       </c>
       <c r="O15">
         <v>10.52</v>
       </c>
       <c r="P15">
-        <v>8.732273901808789</v>
+        <v>8.7322739018087887</v>
       </c>
       <c r="Q15">
-        <v>7.101136950904394</v>
+        <v>7.1011369509043938</v>
       </c>
       <c r="R15">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S15">
-        <v>9.32818260120586</v>
+        <v>9.3281826012058602</v>
       </c>
       <c r="T15">
-        <v>9.92409130060293</v>
+        <v>9.9240913006029299</v>
       </c>
       <c r="U15">
         <v>5.47</v>
       </c>
       <c r="V15">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W15">
         <v>10.52</v>
@@ -1565,7 +1566,7 @@
         <v>10.676589147286816</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10.890268087855294</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>10.80816752799311</v>
       </c>
       <c r="M16">
-        <v>10.82774117140396</v>
+        <v>10.827741171403961</v>
       </c>
       <c r="N16">
         <v>11.907553832902657</v>
@@ -1612,25 +1613,25 @@
         <v>10.52</v>
       </c>
       <c r="P16">
-        <v>8.732273901808789</v>
+        <v>8.7322739018087887</v>
       </c>
       <c r="Q16">
-        <v>7.101136950904394</v>
+        <v>7.1011369509043938</v>
       </c>
       <c r="R16">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S16">
-        <v>9.32818260120586</v>
+        <v>9.3281826012058602</v>
       </c>
       <c r="T16">
-        <v>9.92409130060293</v>
+        <v>9.9240913006029299</v>
       </c>
       <c r="U16">
         <v>5.47</v>
       </c>
       <c r="V16">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W16">
         <v>10.52</v>
@@ -1639,7 +1640,7 @@
         <v>10.676589147286819</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10.919695945945941</v>
       </c>
@@ -1683,10 +1684,10 @@
         <v>13.218648648648662</v>
       </c>
       <c r="O17">
-        <v>9.408918918918914</v>
+        <v>9.4089189189189142</v>
       </c>
       <c r="P17">
-        <v>7.669999999999996</v>
+        <v>7.6699999999999964</v>
       </c>
       <c r="Q17">
         <v>6.5699999999999985</v>
@@ -1695,10 +1696,10 @@
         <v>6.02</v>
       </c>
       <c r="S17">
-        <v>8.619999999999997</v>
+        <v>8.6199999999999974</v>
       </c>
       <c r="T17">
-        <v>9.569999999999999</v>
+        <v>9.5699999999999985</v>
       </c>
       <c r="U17">
         <v>5.47</v>
@@ -1713,7 +1714,7 @@
         <v>10.047837837837832</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10.282449610319821</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>10.60954447729106</v>
       </c>
       <c r="C18">
-        <v>9.714754098360668</v>
+        <v>9.7147540983606682</v>
       </c>
       <c r="D18">
         <v>10.859586132760015</v>
@@ -1760,16 +1761,16 @@
         <v>10.52</v>
       </c>
       <c r="P18">
-        <v>9.10508196721311</v>
+        <v>9.1050819672131098</v>
       </c>
       <c r="Q18">
-        <v>7.287540983606554</v>
+        <v>7.2875409836065543</v>
       </c>
       <c r="R18">
-        <v>6.378770491803277</v>
+        <v>6.3787704918032766</v>
       </c>
       <c r="S18">
-        <v>9.576721311475406</v>
+        <v>9.5767213114754064</v>
       </c>
       <c r="T18">
         <v>10.048360655737703</v>
@@ -1778,7 +1779,7 @@
         <v>5.47</v>
       </c>
       <c r="V18">
-        <v>6.378770491803277</v>
+        <v>6.3787704918032766</v>
       </c>
       <c r="W18">
         <v>10.52</v>
@@ -1787,66 +1788,66 @@
         <v>10.117377049180334</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>8.383550600343042</v>
+        <v>8.3835506003430424</v>
       </c>
       <c r="B19">
-        <v>8.344442538593476</v>
+        <v>8.3444425385934764</v>
       </c>
       <c r="C19">
-        <v>8.469099485420235</v>
+        <v>8.4690994854202355</v>
       </c>
       <c r="D19">
-        <v>8.332221269296738</v>
+        <v>8.3322212692967383</v>
       </c>
       <c r="E19">
-        <v>8.337109777015431</v>
+        <v>8.3371097770154314</v>
       </c>
       <c r="F19">
-        <v>8.317555746140648</v>
+        <v>8.3175557461406484</v>
       </c>
       <c r="G19">
-        <v>8.30533447684391</v>
+        <v>8.3053344768439104</v>
       </c>
       <c r="H19">
-        <v>8.30533447684391</v>
+        <v>8.3053344768439104</v>
       </c>
       <c r="I19">
         <v>8.32</v>
       </c>
       <c r="J19">
-        <v>8.29066895368782</v>
+        <v>8.2906689536878204</v>
       </c>
       <c r="K19">
-        <v>8.232006861063468</v>
+        <v>8.2320068610634678</v>
       </c>
       <c r="L19">
-        <v>8.261337907375646</v>
+        <v>8.2613379073756459</v>
       </c>
       <c r="M19">
-        <v>8.232006861063468</v>
+        <v>8.2320068610634678</v>
       </c>
       <c r="N19">
-        <v>8.085351629502576</v>
+        <v>8.0853516295025756</v>
       </c>
       <c r="O19">
-        <v>8.938396226415094</v>
+        <v>8.9383962264150938</v>
       </c>
       <c r="P19">
         <v>7.9386963979416825</v>
       </c>
       <c r="Q19">
-        <v>6.704348198970841</v>
+        <v>6.7043481989708411</v>
       </c>
       <c r="R19">
         <v>6.08717409948542</v>
       </c>
       <c r="S19">
-        <v>8.026689536878218</v>
+        <v>8.0266895368782176</v>
       </c>
       <c r="T19">
-        <v>8.114682675814752</v>
+        <v>8.1146826758147519</v>
       </c>
       <c r="U19">
         <v>5.47</v>
@@ -1855,13 +1856,13 @@
         <v>6.08717409948542</v>
       </c>
       <c r="W19">
-        <v>8.202675814751288</v>
+        <v>8.2026758147512879</v>
       </c>
       <c r="X19">
-        <v>8.703747855917666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>8.7037478559176655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>11.297196382428941</v>
       </c>
@@ -1908,16 +1909,16 @@
         <v>10.52</v>
       </c>
       <c r="P20">
-        <v>8.617545219638243</v>
+        <v>8.6175452196382434</v>
       </c>
       <c r="Q20">
         <v>7.043772609819122</v>
       </c>
       <c r="R20">
-        <v>6.25688630490956</v>
+        <v>6.2568863049095604</v>
       </c>
       <c r="S20">
-        <v>9.375030146425495</v>
+        <v>9.3750301464254946</v>
       </c>
       <c r="T20">
         <v>10.132515073212748</v>
@@ -1926,7 +1927,7 @@
         <v>5.47</v>
       </c>
       <c r="V20">
-        <v>6.25688630490956</v>
+        <v>6.2568863049095604</v>
       </c>
       <c r="W20">
         <v>10.89</v>
@@ -1935,7 +1936,7 @@
         <v>10.848682170542636</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>11.297196382428929</v>
       </c>
@@ -1982,16 +1983,16 @@
         <v>10.52</v>
       </c>
       <c r="P21">
-        <v>8.617545219638245</v>
+        <v>8.6175452196382452</v>
       </c>
       <c r="Q21">
         <v>7.043772609819122</v>
       </c>
       <c r="R21">
-        <v>6.25688630490956</v>
+        <v>6.2568863049095604</v>
       </c>
       <c r="S21">
-        <v>9.375030146425496</v>
+        <v>9.3750301464254964</v>
       </c>
       <c r="T21">
         <v>10.132515073212748</v>
@@ -2000,7 +2001,7 @@
         <v>5.47</v>
       </c>
       <c r="V21">
-        <v>6.25688630490956</v>
+        <v>6.2568863049095604</v>
       </c>
       <c r="W21">
         <v>10.89</v>
@@ -2009,7 +2010,7 @@
         <v>10.848682170542633</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10.89397609819121</v>
       </c>
@@ -2056,25 +2057,25 @@
         <v>10.38</v>
       </c>
       <c r="P22">
-        <v>8.598423772609822</v>
+        <v>8.5984237726098218</v>
       </c>
       <c r="Q22">
-        <v>7.034211886304911</v>
+        <v>7.0342118863049112</v>
       </c>
       <c r="R22">
-        <v>6.252105943152456</v>
+        <v>6.2521059431524559</v>
       </c>
       <c r="S22">
-        <v>9.23894918173988</v>
+        <v>9.2389491817398799</v>
       </c>
       <c r="T22">
-        <v>9.87947459086994</v>
+        <v>9.8794745908699397</v>
       </c>
       <c r="U22">
         <v>5.47</v>
       </c>
       <c r="V22">
-        <v>6.252105943152456</v>
+        <v>6.2521059431524559</v>
       </c>
       <c r="W22">
         <v>10.52</v>
@@ -2083,7 +2084,7 @@
         <v>10.597364341085271</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10.890268087855308</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>10.916366279069774</v>
       </c>
       <c r="C23">
-        <v>10.83317829457365</v>
+        <v>10.833178294573649</v>
       </c>
       <c r="D23">
         <v>10.924521963824294</v>
@@ -2130,25 +2131,25 @@
         <v>10.52</v>
       </c>
       <c r="P23">
-        <v>8.732273901808785</v>
+        <v>8.7322739018087852</v>
       </c>
       <c r="Q23">
         <v>7.101136950904392</v>
       </c>
       <c r="R23">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="S23">
-        <v>9.328182601205857</v>
+        <v>9.3281826012058566</v>
       </c>
       <c r="T23">
-        <v>9.924091300602928</v>
+        <v>9.9240913006029281</v>
       </c>
       <c r="U23">
         <v>5.47</v>
       </c>
       <c r="V23">
-        <v>6.285568475452196</v>
+        <v>6.2855684754521963</v>
       </c>
       <c r="W23">
         <v>10.52</v>
@@ -2157,7 +2158,7 @@
         <v>10.676589147286824</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11.297196382428941</v>
       </c>
@@ -2204,16 +2205,16 @@
         <v>10.52</v>
       </c>
       <c r="P24">
-        <v>8.617545219638243</v>
+        <v>8.6175452196382434</v>
       </c>
       <c r="Q24">
         <v>7.043772609819122</v>
       </c>
       <c r="R24">
-        <v>6.25688630490956</v>
+        <v>6.2568863049095604</v>
       </c>
       <c r="S24">
-        <v>9.375030146425495</v>
+        <v>9.3750301464254946</v>
       </c>
       <c r="T24">
         <v>10.132515073212748</v>
@@ -2222,7 +2223,7 @@
         <v>5.47</v>
       </c>
       <c r="V24">
-        <v>6.25688630490956</v>
+        <v>6.2568863049095604</v>
       </c>
       <c r="W24">
         <v>10.89</v>
@@ -2231,75 +2232,75 @@
         <v>10.848682170542636</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>9.712142353770261</v>
+        <v>9.7121423537702611</v>
       </c>
       <c r="B25">
-        <v>9.65520084566596</v>
+        <v>9.6552008456659593</v>
       </c>
       <c r="C25">
-        <v>9.836701902748416</v>
+        <v>9.8367019027484162</v>
       </c>
       <c r="D25">
-        <v>9.637406624383367</v>
+        <v>9.6374066243833667</v>
       </c>
       <c r="E25">
-        <v>9.644524312896406</v>
+        <v>9.6445243128964062</v>
       </c>
       <c r="F25">
-        <v>9.616053558844255</v>
+        <v>9.6160535588442553</v>
       </c>
       <c r="G25">
-        <v>9.598259337561664</v>
+        <v>9.5982593375616645</v>
       </c>
       <c r="H25">
-        <v>9.598259337561664</v>
+        <v>9.5982593375616645</v>
       </c>
       <c r="I25">
-        <v>9.619612403100776</v>
+        <v>9.6196124031007759</v>
       </c>
       <c r="J25">
-        <v>9.576906272022551</v>
+        <v>9.5769062720225513</v>
       </c>
       <c r="K25">
         <v>9.491494009866102</v>
       </c>
       <c r="L25">
-        <v>9.534200140944327</v>
+        <v>9.5342001409443267</v>
       </c>
       <c r="M25">
         <v>9.491494009866102</v>
       </c>
       <c r="N25">
-        <v>9.27796335447498</v>
+        <v>9.2779633544749807</v>
       </c>
       <c r="O25">
         <v>10.52</v>
       </c>
       <c r="P25">
-        <v>9.064432699083861</v>
+        <v>9.0644326990838611</v>
       </c>
       <c r="Q25">
-        <v>7.267216349541931</v>
+        <v>7.2672163495419309</v>
       </c>
       <c r="R25">
-        <v>6.368608174770966</v>
+        <v>6.3686081747709657</v>
       </c>
       <c r="S25">
         <v>9.192551092318535</v>
       </c>
       <c r="T25">
-        <v>9.320669485553207</v>
+        <v>9.3206694855532071</v>
       </c>
       <c r="U25">
         <v>5.47</v>
       </c>
       <c r="V25">
-        <v>6.368608174770966</v>
+        <v>6.3686081747709657</v>
       </c>
       <c r="W25">
-        <v>9.44878787878788</v>
+        <v>9.4487878787878792</v>
       </c>
       <c r="X25">
         <v>10.178350951374208</v>
@@ -2311,14 +2312,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C3FB7D-4B93-4D05-A7A5-2CB13516AB49}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:X25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2392,1780 +2395,1780 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>0.0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>60.547459704376536</v>
       </c>
-      <c r="C2">
-        <v>-79.62128636894869</v>
-      </c>
-      <c r="D2">
-        <v>0.0</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1">
+        <v>-79.621286368948688</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>19.073826664572152</v>
       </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-      <c r="G2">
-        <v>0.0</v>
-      </c>
-      <c r="H2">
-        <v>0.0</v>
-      </c>
-      <c r="I2">
-        <v>0.0</v>
-      </c>
-      <c r="J2">
-        <v>0.0</v>
-      </c>
-      <c r="K2">
-        <v>0.0</v>
-      </c>
-      <c r="L2">
-        <v>0.0</v>
-      </c>
-      <c r="M2">
-        <v>0.0</v>
-      </c>
-      <c r="N2">
-        <v>0.0</v>
-      </c>
-      <c r="O2">
-        <v>0.0</v>
-      </c>
-      <c r="P2">
-        <v>0.0</v>
-      </c>
-      <c r="Q2">
-        <v>0.0</v>
-      </c>
-      <c r="R2">
-        <v>0.0</v>
-      </c>
-      <c r="S2">
-        <v>0.0</v>
-      </c>
-      <c r="T2">
-        <v>0.0</v>
-      </c>
-      <c r="U2">
-        <v>0.0</v>
-      </c>
-      <c r="V2">
-        <v>0.0</v>
-      </c>
-      <c r="W2">
-        <v>0.0</v>
-      </c>
-      <c r="X2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>-60.547459704376536</v>
       </c>
-      <c r="B3">
-        <v>0.0</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>13.247740516992664</v>
       </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>47.29971918738387</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3">
-        <v>0.0</v>
-      </c>
-      <c r="J3">
-        <v>0.0</v>
-      </c>
-      <c r="K3">
-        <v>0.0</v>
-      </c>
-      <c r="L3">
-        <v>0.0</v>
-      </c>
-      <c r="M3">
-        <v>0.0</v>
-      </c>
-      <c r="N3">
-        <v>0.0</v>
-      </c>
-      <c r="O3">
-        <v>0.0</v>
-      </c>
-      <c r="P3">
-        <v>0.0</v>
-      </c>
-      <c r="Q3">
-        <v>0.0</v>
-      </c>
-      <c r="R3">
-        <v>0.0</v>
-      </c>
-      <c r="S3">
-        <v>0.0</v>
-      </c>
-      <c r="T3">
-        <v>0.0</v>
-      </c>
-      <c r="U3">
-        <v>0.0</v>
-      </c>
-      <c r="V3">
-        <v>0.0</v>
-      </c>
-      <c r="W3">
-        <v>0.0</v>
-      </c>
-      <c r="X3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>79.62128636894869</v>
-      </c>
-      <c r="B4">
-        <v>0.0</v>
-      </c>
-      <c r="C4">
-        <v>0.0</v>
-      </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="I4">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>47.299719187383872</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>79.621286368948688</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>120.49251710731056</v>
       </c>
-      <c r="J4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
-        <v>0.0</v>
-      </c>
-      <c r="L4">
-        <v>0.0</v>
-      </c>
-      <c r="M4">
-        <v>0.0</v>
-      </c>
-      <c r="N4">
-        <v>0.0</v>
-      </c>
-      <c r="O4">
-        <v>0.0</v>
-      </c>
-      <c r="P4">
-        <v>0.0</v>
-      </c>
-      <c r="Q4">
-        <v>0.0</v>
-      </c>
-      <c r="R4">
-        <v>0.0</v>
-      </c>
-      <c r="S4">
-        <v>0.0</v>
-      </c>
-      <c r="T4">
-        <v>0.0</v>
-      </c>
-      <c r="U4">
-        <v>0.0</v>
-      </c>
-      <c r="V4">
-        <v>0.0</v>
-      </c>
-      <c r="W4">
-        <v>0.0</v>
-      </c>
-      <c r="X4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
         <v>-254.32234367625927</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
-        <v>0.0</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>-13.247740516992693</v>
       </c>
-      <c r="C5">
-        <v>0.0</v>
-      </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>0.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="I5">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>-32.923969483007305</v>
       </c>
-      <c r="J5">
-        <v>0.0</v>
-      </c>
-      <c r="K5">
-        <v>0.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0</v>
-      </c>
-      <c r="M5">
-        <v>0.0</v>
-      </c>
-      <c r="N5">
-        <v>0.0</v>
-      </c>
-      <c r="O5">
-        <v>0.0</v>
-      </c>
-      <c r="P5">
-        <v>0.0</v>
-      </c>
-      <c r="Q5">
-        <v>0.0</v>
-      </c>
-      <c r="R5">
-        <v>0.0</v>
-      </c>
-      <c r="S5">
-        <v>0.0</v>
-      </c>
-      <c r="T5">
-        <v>0.0</v>
-      </c>
-      <c r="U5">
-        <v>0.0</v>
-      </c>
-      <c r="V5">
-        <v>0.0</v>
-      </c>
-      <c r="W5">
-        <v>0.0</v>
-      </c>
-      <c r="X5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>-19.073826664572135</v>
       </c>
-      <c r="B6">
-        <v>0.0</v>
-      </c>
-      <c r="C6">
-        <v>0.0</v>
-      </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>0.0</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0.0</v>
-      </c>
-      <c r="J6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>50.832991414572135</v>
       </c>
-      <c r="K6">
-        <v>0.0</v>
-      </c>
-      <c r="L6">
-        <v>0.0</v>
-      </c>
-      <c r="M6">
-        <v>0.0</v>
-      </c>
-      <c r="N6">
-        <v>0.0</v>
-      </c>
-      <c r="O6">
-        <v>0.0</v>
-      </c>
-      <c r="P6">
-        <v>0.0</v>
-      </c>
-      <c r="Q6">
-        <v>0.0</v>
-      </c>
-      <c r="R6">
-        <v>0.0</v>
-      </c>
-      <c r="S6">
-        <v>0.0</v>
-      </c>
-      <c r="T6">
-        <v>0.0</v>
-      </c>
-      <c r="U6">
-        <v>0.0</v>
-      </c>
-      <c r="V6">
-        <v>0.0</v>
-      </c>
-      <c r="W6">
-        <v>0.0</v>
-      </c>
-      <c r="X6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
-        <v>0.0</v>
-      </c>
-      <c r="B7">
-        <v>-47.29971918738387</v>
-      </c>
-      <c r="C7">
-        <v>0.0</v>
-      </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="I7">
-        <v>0.0</v>
-      </c>
-      <c r="J7">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-47.299719187383872</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>-37.940360812616134</v>
       </c>
-      <c r="K7">
-        <v>0.0</v>
-      </c>
-      <c r="L7">
-        <v>0.0</v>
-      </c>
-      <c r="M7">
-        <v>0.0</v>
-      </c>
-      <c r="N7">
-        <v>0.0</v>
-      </c>
-      <c r="O7">
-        <v>0.0</v>
-      </c>
-      <c r="P7">
-        <v>0.0</v>
-      </c>
-      <c r="Q7">
-        <v>0.0</v>
-      </c>
-      <c r="R7">
-        <v>0.0</v>
-      </c>
-      <c r="S7">
-        <v>0.0</v>
-      </c>
-      <c r="T7">
-        <v>0.0</v>
-      </c>
-      <c r="U7">
-        <v>0.0</v>
-      </c>
-      <c r="V7">
-        <v>0.0</v>
-      </c>
-      <c r="W7">
-        <v>0.0</v>
-      </c>
-      <c r="X7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
-        <v>0.0</v>
-      </c>
-      <c r="B8">
-        <v>0.0</v>
-      </c>
-      <c r="C8">
-        <v>0.0</v>
-      </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>0.0</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-      <c r="H8">
-        <v>-78.13674</v>
-      </c>
-      <c r="I8">
-        <v>0.0</v>
-      </c>
-      <c r="J8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0.0</v>
-      </c>
-      <c r="L8">
-        <v>0.0</v>
-      </c>
-      <c r="M8">
-        <v>0.0</v>
-      </c>
-      <c r="N8">
-        <v>0.0</v>
-      </c>
-      <c r="O8">
-        <v>0.0</v>
-      </c>
-      <c r="P8">
-        <v>0.0</v>
-      </c>
-      <c r="Q8">
-        <v>0.0</v>
-      </c>
-      <c r="R8">
-        <v>0.0</v>
-      </c>
-      <c r="S8">
-        <v>0.0</v>
-      </c>
-      <c r="T8">
-        <v>0.0</v>
-      </c>
-      <c r="U8">
-        <v>0.0</v>
-      </c>
-      <c r="V8">
-        <v>0.0</v>
-      </c>
-      <c r="W8">
-        <v>0.0</v>
-      </c>
-      <c r="X8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9">
-        <v>0.0</v>
-      </c>
-      <c r="B9">
-        <v>0.0</v>
-      </c>
-      <c r="C9">
-        <v>0.0</v>
-      </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>78.13674</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-78.136740000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>78.136740000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>-106.86121367039118</v>
       </c>
-      <c r="J9">
-        <v>-77.82562632960884</v>
-      </c>
-      <c r="K9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0</v>
-      </c>
-      <c r="M9">
-        <v>0.0</v>
-      </c>
-      <c r="N9">
-        <v>0.0</v>
-      </c>
-      <c r="O9">
-        <v>0.0</v>
-      </c>
-      <c r="P9">
-        <v>0.0</v>
-      </c>
-      <c r="Q9">
-        <v>0.0</v>
-      </c>
-      <c r="R9">
-        <v>0.0</v>
-      </c>
-      <c r="S9">
-        <v>0.0</v>
-      </c>
-      <c r="T9">
-        <v>0.0</v>
-      </c>
-      <c r="U9">
-        <v>0.0</v>
-      </c>
-      <c r="V9">
-        <v>0.0</v>
-      </c>
-      <c r="W9">
-        <v>0.0</v>
-      </c>
-      <c r="X9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10">
-        <v>0.0</v>
-      </c>
-      <c r="B10">
-        <v>0.0</v>
-      </c>
-      <c r="C10">
+      <c r="J9" s="1">
+        <v>-77.825626329608838</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>-120.49251710731058</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>32.923969483007326</v>
       </c>
-      <c r="E10">
-        <v>0.0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>0.0</v>
-      </c>
-      <c r="H10">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>106.86121367039122</v>
       </c>
-      <c r="I10">
-        <v>0.0</v>
-      </c>
-      <c r="J10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>-66.43556403308217</v>
-      </c>
-      <c r="L10">
-        <v>-61.1830370130058</v>
-      </c>
-      <c r="M10">
-        <v>0.0</v>
-      </c>
-      <c r="N10">
-        <v>0.0</v>
-      </c>
-      <c r="O10">
-        <v>0.0</v>
-      </c>
-      <c r="P10">
-        <v>0.0</v>
-      </c>
-      <c r="Q10">
-        <v>0.0</v>
-      </c>
-      <c r="R10">
-        <v>0.0</v>
-      </c>
-      <c r="S10">
-        <v>0.0</v>
-      </c>
-      <c r="T10">
-        <v>0.0</v>
-      </c>
-      <c r="U10">
-        <v>0.0</v>
-      </c>
-      <c r="V10">
-        <v>0.0</v>
-      </c>
-      <c r="W10">
-        <v>0.0</v>
-      </c>
-      <c r="X10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11">
-        <v>0.0</v>
-      </c>
-      <c r="B11">
-        <v>0.0</v>
-      </c>
-      <c r="C11">
-        <v>0.0</v>
-      </c>
-      <c r="D11">
-        <v>0.0</v>
-      </c>
-      <c r="E11">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-66.435564033082173</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-61.183037013005801</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>-50.832991414572135</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>37.940360812616134</v>
       </c>
-      <c r="G11">
-        <v>0.0</v>
-      </c>
-      <c r="H11">
-        <v>77.82562632960884</v>
-      </c>
-      <c r="I11">
-        <v>0.0</v>
-      </c>
-      <c r="J11">
-        <v>0.0</v>
-      </c>
-      <c r="K11">
-        <v>-95.47115137386456</v>
-      </c>
-      <c r="L11">
-        <v>-90.21862435378829</v>
-      </c>
-      <c r="M11">
-        <v>0.0</v>
-      </c>
-      <c r="N11">
-        <v>0.0</v>
-      </c>
-      <c r="O11">
-        <v>0.0</v>
-      </c>
-      <c r="P11">
-        <v>0.0</v>
-      </c>
-      <c r="Q11">
-        <v>0.0</v>
-      </c>
-      <c r="R11">
-        <v>0.0</v>
-      </c>
-      <c r="S11">
-        <v>0.0</v>
-      </c>
-      <c r="T11">
-        <v>0.0</v>
-      </c>
-      <c r="U11">
-        <v>0.0</v>
-      </c>
-      <c r="V11">
-        <v>0.0</v>
-      </c>
-      <c r="W11">
-        <v>0.0</v>
-      </c>
-      <c r="X11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12">
-        <v>0.0</v>
-      </c>
-      <c r="B12">
-        <v>0.0</v>
-      </c>
-      <c r="C12">
-        <v>0.0</v>
-      </c>
-      <c r="D12">
-        <v>0.0</v>
-      </c>
-      <c r="E12">
-        <v>0.0</v>
-      </c>
-      <c r="F12">
-        <v>0.0</v>
-      </c>
-      <c r="G12">
-        <v>0.0</v>
-      </c>
-      <c r="H12">
-        <v>0.0</v>
-      </c>
-      <c r="I12">
-        <v>66.43556403308217</v>
-      </c>
-      <c r="J12">
-        <v>95.47115137386456</v>
-      </c>
-      <c r="K12">
-        <v>0.0</v>
-      </c>
-      <c r="L12">
-        <v>0.0</v>
-      </c>
-      <c r="M12">
-        <v>7.377143673358958</v>
-      </c>
-      <c r="N12">
-        <v>-169.2838590803057</v>
-      </c>
-      <c r="O12">
-        <v>0.0</v>
-      </c>
-      <c r="P12">
-        <v>0.0</v>
-      </c>
-      <c r="Q12">
-        <v>0.0</v>
-      </c>
-      <c r="R12">
-        <v>0.0</v>
-      </c>
-      <c r="S12">
-        <v>0.0</v>
-      </c>
-      <c r="T12">
-        <v>0.0</v>
-      </c>
-      <c r="U12">
-        <v>0.0</v>
-      </c>
-      <c r="V12">
-        <v>0.0</v>
-      </c>
-      <c r="W12">
-        <v>0.0</v>
-      </c>
-      <c r="X12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13">
-        <v>0.0</v>
-      </c>
-      <c r="B13">
-        <v>0.0</v>
-      </c>
-      <c r="C13">
-        <v>0.0</v>
-      </c>
-      <c r="D13">
-        <v>0.0</v>
-      </c>
-      <c r="E13">
-        <v>0.0</v>
-      </c>
-      <c r="F13">
-        <v>0.0</v>
-      </c>
-      <c r="G13">
-        <v>0.0</v>
-      </c>
-      <c r="H13">
-        <v>0.0</v>
-      </c>
-      <c r="I13">
-        <v>61.1830370130058</v>
-      </c>
-      <c r="J13">
-        <v>90.21862435378819</v>
-      </c>
-      <c r="K13">
-        <v>0.0</v>
-      </c>
-      <c r="L13">
-        <v>0.0</v>
-      </c>
-      <c r="M13">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>77.825626329608838</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-95.471151373864558</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-90.218624353788286</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>66.435564033082173</v>
+      </c>
+      <c r="J12" s="1">
+        <v>95.471151373864558</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.3771436733589582</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-169.28385908030569</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>61.183037013005801</v>
+      </c>
+      <c r="J13" s="1">
+        <v>90.218624353788186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>2.1246166532824446</v>
       </c>
-      <c r="N13">
-        <v>0.0</v>
-      </c>
-      <c r="O13">
-        <v>0.0</v>
-      </c>
-      <c r="P13">
-        <v>0.0</v>
-      </c>
-      <c r="Q13">
-        <v>0.0</v>
-      </c>
-      <c r="R13">
-        <v>0.0</v>
-      </c>
-      <c r="S13">
-        <v>0.0</v>
-      </c>
-      <c r="T13">
-        <v>0.0</v>
-      </c>
-      <c r="U13">
-        <v>0.0</v>
-      </c>
-      <c r="V13">
-        <v>0.0</v>
-      </c>
-      <c r="W13">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
         <v>-153.52627802007643</v>
       </c>
-      <c r="X13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14">
-        <v>0.0</v>
-      </c>
-      <c r="B14">
-        <v>0.0</v>
-      </c>
-      <c r="C14">
-        <v>0.0</v>
-      </c>
-      <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0.0</v>
-      </c>
-      <c r="F14">
-        <v>0.0</v>
-      </c>
-      <c r="G14">
-        <v>0.0</v>
-      </c>
-      <c r="H14">
-        <v>0.0</v>
-      </c>
-      <c r="I14">
-        <v>0.0</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>-7.377143673358777</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>-2.1246166532823985</v>
       </c>
-      <c r="M14">
-        <v>0.0</v>
-      </c>
-      <c r="N14">
-        <v>0.0</v>
-      </c>
-      <c r="O14">
-        <v>0.0</v>
-      </c>
-      <c r="P14">
-        <v>0.0</v>
-      </c>
-      <c r="Q14">
-        <v>0.0</v>
-      </c>
-      <c r="R14">
-        <v>0.0</v>
-      </c>
-      <c r="S14">
-        <v>0.0</v>
-      </c>
-      <c r="T14">
-        <v>0.0</v>
-      </c>
-      <c r="U14">
-        <v>0.0</v>
-      </c>
-      <c r="V14">
-        <v>0.0</v>
-      </c>
-      <c r="W14">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
         <v>-155.65089467335883</v>
       </c>
-      <c r="X14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15">
-        <v>0.0</v>
-      </c>
-      <c r="B15">
-        <v>0.0</v>
-      </c>
-      <c r="C15">
-        <v>0.0</v>
-      </c>
-      <c r="D15">
-        <v>0.0</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>0.0</v>
-      </c>
-      <c r="G15">
-        <v>0.0</v>
-      </c>
-      <c r="H15">
-        <v>0.0</v>
-      </c>
-      <c r="I15">
-        <v>0.0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>169.2838590803057</v>
-      </c>
-      <c r="L15">
-        <v>0.0</v>
-      </c>
-      <c r="M15">
-        <v>0.0</v>
-      </c>
-      <c r="N15">
-        <v>0.0</v>
-      </c>
-      <c r="O15">
-        <v>0.0</v>
-      </c>
-      <c r="P15">
-        <v>-250.0</v>
-      </c>
-      <c r="Q15">
-        <v>0.0</v>
-      </c>
-      <c r="R15">
-        <v>0.0</v>
-      </c>
-      <c r="S15">
-        <v>0.0</v>
-      </c>
-      <c r="T15">
-        <v>0.0</v>
-      </c>
-      <c r="U15">
-        <v>0.0</v>
-      </c>
-      <c r="V15">
-        <v>0.0</v>
-      </c>
-      <c r="W15">
-        <v>0.0</v>
-      </c>
-      <c r="X15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16">
-        <v>0.0</v>
-      </c>
-      <c r="B16">
-        <v>0.0</v>
-      </c>
-      <c r="C16">
-        <v>0.0</v>
-      </c>
-      <c r="D16">
-        <v>0.0</v>
-      </c>
-      <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>0.0</v>
-      </c>
-      <c r="G16">
-        <v>0.0</v>
-      </c>
-      <c r="H16">
-        <v>0.0</v>
-      </c>
-      <c r="I16">
-        <v>0.0</v>
-      </c>
-      <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>0.0</v>
-      </c>
-      <c r="L16">
-        <v>0.0</v>
-      </c>
-      <c r="M16">
-        <v>0.0</v>
-      </c>
-      <c r="N16">
-        <v>0.0</v>
-      </c>
-      <c r="O16">
-        <v>0.0</v>
-      </c>
-      <c r="P16">
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>169.28385908030569</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-250</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <v>143.4177813464413</v>
       </c>
-      <c r="Q16">
-        <v>0.0</v>
-      </c>
-      <c r="R16">
-        <v>0.0</v>
-      </c>
-      <c r="S16">
-        <v>0.0</v>
-      </c>
-      <c r="T16">
-        <v>0.0</v>
-      </c>
-      <c r="U16">
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
         <v>-397.74012502270057</v>
       </c>
-      <c r="V16">
-        <v>0.0</v>
-      </c>
-      <c r="W16">
-        <v>0.0</v>
-      </c>
-      <c r="X16">
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
         <v>254.32234367625927</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
-        <v>0.0</v>
-      </c>
-      <c r="B17">
-        <v>0.0</v>
-      </c>
-      <c r="C17">
-        <v>0.0</v>
-      </c>
-      <c r="D17">
-        <v>0.0</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
-      <c r="F17">
-        <v>0.0</v>
-      </c>
-      <c r="G17">
-        <v>0.0</v>
-      </c>
-      <c r="H17">
-        <v>0.0</v>
-      </c>
-      <c r="I17">
-        <v>0.0</v>
-      </c>
-      <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>0.0</v>
-      </c>
-      <c r="L17">
-        <v>0.0</v>
-      </c>
-      <c r="M17">
-        <v>0.0</v>
-      </c>
-      <c r="N17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>250.00000000000097</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>-143.4177813464413</v>
       </c>
-      <c r="P17">
-        <v>0.0</v>
-      </c>
-      <c r="Q17">
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
         <v>-356.83961666699486</v>
       </c>
-      <c r="R17">
-        <v>0.0</v>
-      </c>
-      <c r="S17">
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>192.7431876934352</v>
       </c>
-      <c r="T17">
-        <v>0.0</v>
-      </c>
-      <c r="U17">
-        <v>0.0</v>
-      </c>
-      <c r="V17">
-        <v>0.0</v>
-      </c>
-      <c r="W17">
-        <v>0.0</v>
-      </c>
-      <c r="X17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18">
-        <v>0.0</v>
-      </c>
-      <c r="B18">
-        <v>0.0</v>
-      </c>
-      <c r="C18">
-        <v>0.0</v>
-      </c>
-      <c r="D18">
-        <v>0.0</v>
-      </c>
-      <c r="E18">
-        <v>0.0</v>
-      </c>
-      <c r="F18">
-        <v>0.0</v>
-      </c>
-      <c r="G18">
-        <v>0.0</v>
-      </c>
-      <c r="H18">
-        <v>0.0</v>
-      </c>
-      <c r="I18">
-        <v>0.0</v>
-      </c>
-      <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>0.0</v>
-      </c>
-      <c r="L18">
-        <v>0.0</v>
-      </c>
-      <c r="M18">
-        <v>0.0</v>
-      </c>
-      <c r="N18">
-        <v>0.0</v>
-      </c>
-      <c r="O18">
-        <v>0.0</v>
-      </c>
-      <c r="P18">
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>356.83961666699486</v>
       </c>
-      <c r="Q18">
-        <v>0.0</v>
-      </c>
-      <c r="R18">
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
         <v>-114.68047181592112</v>
       </c>
-      <c r="S18">
-        <v>0.0</v>
-      </c>
-      <c r="T18">
-        <v>0.0</v>
-      </c>
-      <c r="U18">
-        <v>0.0</v>
-      </c>
-      <c r="V18">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
         <v>-242.15914485107373</v>
       </c>
-      <c r="W18">
-        <v>0.0</v>
-      </c>
-      <c r="X18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19">
-        <v>0.0</v>
-      </c>
-      <c r="B19">
-        <v>0.0</v>
-      </c>
-      <c r="C19">
-        <v>0.0</v>
-      </c>
-      <c r="D19">
-        <v>0.0</v>
-      </c>
-      <c r="E19">
-        <v>0.0</v>
-      </c>
-      <c r="F19">
-        <v>0.0</v>
-      </c>
-      <c r="G19">
-        <v>0.0</v>
-      </c>
-      <c r="H19">
-        <v>0.0</v>
-      </c>
-      <c r="I19">
-        <v>0.0</v>
-      </c>
-      <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
-        <v>0.0</v>
-      </c>
-      <c r="L19">
-        <v>0.0</v>
-      </c>
-      <c r="M19">
-        <v>0.0</v>
-      </c>
-      <c r="N19">
-        <v>0.0</v>
-      </c>
-      <c r="O19">
-        <v>0.0</v>
-      </c>
-      <c r="P19">
-        <v>0.0</v>
-      </c>
-      <c r="Q19">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <v>114.68047181592112</v>
       </c>
-      <c r="R19">
-        <v>0.0</v>
-      </c>
-      <c r="S19">
-        <v>0.0</v>
-      </c>
-      <c r="T19">
-        <v>0.0</v>
-      </c>
-      <c r="U19">
-        <v>-69.63781788622589</v>
-      </c>
-      <c r="V19">
-        <v>0.0</v>
-      </c>
-      <c r="W19">
-        <v>0.0</v>
-      </c>
-      <c r="X19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20">
-        <v>0.0</v>
-      </c>
-      <c r="B20">
-        <v>0.0</v>
-      </c>
-      <c r="C20">
-        <v>0.0</v>
-      </c>
-      <c r="D20">
-        <v>0.0</v>
-      </c>
-      <c r="E20">
-        <v>0.0</v>
-      </c>
-      <c r="F20">
-        <v>0.0</v>
-      </c>
-      <c r="G20">
-        <v>0.0</v>
-      </c>
-      <c r="H20">
-        <v>0.0</v>
-      </c>
-      <c r="I20">
-        <v>0.0</v>
-      </c>
-      <c r="J20">
-        <v>0.0</v>
-      </c>
-      <c r="K20">
-        <v>0.0</v>
-      </c>
-      <c r="L20">
-        <v>0.0</v>
-      </c>
-      <c r="M20">
-        <v>0.0</v>
-      </c>
-      <c r="N20">
-        <v>0.0</v>
-      </c>
-      <c r="O20">
-        <v>0.0</v>
-      </c>
-      <c r="P20">
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-69.637817886225889</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>-192.74318769343523</v>
       </c>
-      <c r="Q20">
-        <v>0.0</v>
-      </c>
-      <c r="R20">
-        <v>0.0</v>
-      </c>
-      <c r="S20">
-        <v>0.0</v>
-      </c>
-      <c r="T20">
-        <v>79.08974769343523</v>
-      </c>
-      <c r="U20">
-        <v>0.0</v>
-      </c>
-      <c r="V20">
-        <v>0.0</v>
-      </c>
-      <c r="W20">
-        <v>0.0</v>
-      </c>
-      <c r="X20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21">
-        <v>0.0</v>
-      </c>
-      <c r="B21">
-        <v>0.0</v>
-      </c>
-      <c r="C21">
-        <v>0.0</v>
-      </c>
-      <c r="D21">
-        <v>0.0</v>
-      </c>
-      <c r="E21">
-        <v>0.0</v>
-      </c>
-      <c r="F21">
-        <v>0.0</v>
-      </c>
-      <c r="G21">
-        <v>0.0</v>
-      </c>
-      <c r="H21">
-        <v>0.0</v>
-      </c>
-      <c r="I21">
-        <v>0.0</v>
-      </c>
-      <c r="J21">
-        <v>0.0</v>
-      </c>
-      <c r="K21">
-        <v>0.0</v>
-      </c>
-      <c r="L21">
-        <v>0.0</v>
-      </c>
-      <c r="M21">
-        <v>0.0</v>
-      </c>
-      <c r="N21">
-        <v>0.0</v>
-      </c>
-      <c r="O21">
-        <v>0.0</v>
-      </c>
-      <c r="P21">
-        <v>0.0</v>
-      </c>
-      <c r="Q21">
-        <v>0.0</v>
-      </c>
-      <c r="R21">
-        <v>0.0</v>
-      </c>
-      <c r="S21">
-        <v>-79.08974769343521</v>
-      </c>
-      <c r="T21">
-        <v>0.0</v>
-      </c>
-      <c r="U21">
-        <v>0.0</v>
-      </c>
-      <c r="V21">
-        <v>0.0</v>
-      </c>
-      <c r="W21">
-        <v>-0.8228273065647898</v>
-      </c>
-      <c r="X21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22">
-        <v>0.0</v>
-      </c>
-      <c r="B22">
-        <v>0.0</v>
-      </c>
-      <c r="C22">
-        <v>0.0</v>
-      </c>
-      <c r="D22">
-        <v>0.0</v>
-      </c>
-      <c r="E22">
-        <v>0.0</v>
-      </c>
-      <c r="F22">
-        <v>0.0</v>
-      </c>
-      <c r="G22">
-        <v>0.0</v>
-      </c>
-      <c r="H22">
-        <v>0.0</v>
-      </c>
-      <c r="I22">
-        <v>0.0</v>
-      </c>
-      <c r="J22">
-        <v>0.0</v>
-      </c>
-      <c r="K22">
-        <v>0.0</v>
-      </c>
-      <c r="L22">
-        <v>0.0</v>
-      </c>
-      <c r="M22">
-        <v>0.0</v>
-      </c>
-      <c r="N22">
-        <v>0.0</v>
-      </c>
-      <c r="O22">
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>79.089747693435228</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-79.089747693435214</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-0.82282730656478975</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>397.74012502270057</v>
       </c>
-      <c r="P22">
-        <v>0.0</v>
-      </c>
-      <c r="Q22">
-        <v>0.0</v>
-      </c>
-      <c r="R22">
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
         <v>69.63781788622606</v>
       </c>
-      <c r="S22">
-        <v>0.0</v>
-      </c>
-      <c r="T22">
-        <v>0.0</v>
-      </c>
-      <c r="U22">
-        <v>0.0</v>
-      </c>
-      <c r="V22">
-        <v>-57.84085514892661</v>
-      </c>
-      <c r="W22">
-        <v>0.0</v>
-      </c>
-      <c r="X22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23">
-        <v>0.0</v>
-      </c>
-      <c r="B23">
-        <v>0.0</v>
-      </c>
-      <c r="C23">
-        <v>0.0</v>
-      </c>
-      <c r="D23">
-        <v>0.0</v>
-      </c>
-      <c r="E23">
-        <v>0.0</v>
-      </c>
-      <c r="F23">
-        <v>0.0</v>
-      </c>
-      <c r="G23">
-        <v>0.0</v>
-      </c>
-      <c r="H23">
-        <v>0.0</v>
-      </c>
-      <c r="I23">
-        <v>0.0</v>
-      </c>
-      <c r="J23">
-        <v>0.0</v>
-      </c>
-      <c r="K23">
-        <v>0.0</v>
-      </c>
-      <c r="L23">
-        <v>0.0</v>
-      </c>
-      <c r="M23">
-        <v>0.0</v>
-      </c>
-      <c r="N23">
-        <v>0.0</v>
-      </c>
-      <c r="O23">
-        <v>0.0</v>
-      </c>
-      <c r="P23">
-        <v>0.0</v>
-      </c>
-      <c r="Q23">
-        <v>242.1591448510735</v>
-      </c>
-      <c r="R23">
-        <v>0.0</v>
-      </c>
-      <c r="S23">
-        <v>0.0</v>
-      </c>
-      <c r="T23">
-        <v>0.0</v>
-      </c>
-      <c r="U23">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>-57.840855148926607</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>242.15914485107351</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
         <v>57.840855148926494</v>
       </c>
-      <c r="V23">
-        <v>0.0</v>
-      </c>
-      <c r="W23">
-        <v>0.0</v>
-      </c>
-      <c r="X23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24">
-        <v>0.0</v>
-      </c>
-      <c r="B24">
-        <v>0.0</v>
-      </c>
-      <c r="C24">
-        <v>0.0</v>
-      </c>
-      <c r="D24">
-        <v>0.0</v>
-      </c>
-      <c r="E24">
-        <v>0.0</v>
-      </c>
-      <c r="F24">
-        <v>0.0</v>
-      </c>
-      <c r="G24">
-        <v>0.0</v>
-      </c>
-      <c r="H24">
-        <v>0.0</v>
-      </c>
-      <c r="I24">
-        <v>0.0</v>
-      </c>
-      <c r="J24">
-        <v>0.0</v>
-      </c>
-      <c r="K24">
-        <v>0.0</v>
-      </c>
-      <c r="L24">
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>153.52627802007643</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>155.65089467335875</v>
       </c>
-      <c r="N24">
-        <v>0.0</v>
-      </c>
-      <c r="O24">
-        <v>0.0</v>
-      </c>
-      <c r="P24">
-        <v>0.0</v>
-      </c>
-      <c r="Q24">
-        <v>0.0</v>
-      </c>
-      <c r="R24">
-        <v>0.0</v>
-      </c>
-      <c r="S24">
-        <v>0.0</v>
-      </c>
-      <c r="T24">
-        <v>0.8228273065647898</v>
-      </c>
-      <c r="U24">
-        <v>0.0</v>
-      </c>
-      <c r="V24">
-        <v>0.0</v>
-      </c>
-      <c r="W24">
-        <v>0.0</v>
-      </c>
-      <c r="X24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25">
-        <v>0.0</v>
-      </c>
-      <c r="B25">
-        <v>0.0</v>
-      </c>
-      <c r="C25">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.82282730656478975</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>254.32234367625938</v>
       </c>
-      <c r="D25">
-        <v>0.0</v>
-      </c>
-      <c r="E25">
-        <v>0.0</v>
-      </c>
-      <c r="F25">
-        <v>0.0</v>
-      </c>
-      <c r="G25">
-        <v>0.0</v>
-      </c>
-      <c r="H25">
-        <v>0.0</v>
-      </c>
-      <c r="I25">
-        <v>0.0</v>
-      </c>
-      <c r="J25">
-        <v>0.0</v>
-      </c>
-      <c r="K25">
-        <v>0.0</v>
-      </c>
-      <c r="L25">
-        <v>0.0</v>
-      </c>
-      <c r="M25">
-        <v>0.0</v>
-      </c>
-      <c r="N25">
-        <v>0.0</v>
-      </c>
-      <c r="O25">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
         <v>-254.32234367625938</v>
       </c>
-      <c r="P25">
-        <v>0.0</v>
-      </c>
-      <c r="Q25">
-        <v>0.0</v>
-      </c>
-      <c r="R25">
-        <v>0.0</v>
-      </c>
-      <c r="S25">
-        <v>0.0</v>
-      </c>
-      <c r="T25">
-        <v>0.0</v>
-      </c>
-      <c r="U25">
-        <v>0.0</v>
-      </c>
-      <c r="V25">
-        <v>0.0</v>
-      </c>
-      <c r="W25">
-        <v>0.0</v>
-      </c>
-      <c r="X25">
-        <v>0.0</v>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results_step3_nodal.xlsx
+++ b/results_step3_nodal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601c3f8e6edde6a/Documents/Ms_Sustainable_Energy/46755_Renewables_in_electricity_markets/REIM_Github/RenewablesInElectricityMarkets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37fc5fa60b93f913/Desktop/Renewables in Electricity Markets/Shared Code Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="115_{1245D93B-D7BE-476A-83AC-B8293ACE6681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B4BD9F-97E1-4210-AFE5-5FC380FF0C4E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DA_Prices" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366E9643-06F3-483A-AA0A-72D26A509BA1}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
+      <selection activeCell="Y25" sqref="A1:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/results_step3_nodal.xlsx
+++ b/results_step3_nodal.xlsx
@@ -21,6 +21,8 @@
     <sheet name="Nodal_Generation" r:id="rId9" sheetId="6"/>
     <sheet name="Nodal_Demand" r:id="rId10" sheetId="7"/>
     <sheet name="Nodal_Wind" r:id="rId11" sheetId="8"/>
+    <sheet name="Profit_gen" r:id="rId12" sheetId="9"/>
+    <sheet name="Profit_wind" r:id="rId13" sheetId="10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2367,6 +2369,519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="B2">
+        <v>1764.1645106693788</v>
+      </c>
+      <c r="C2">
+        <v>24.56961514124597</v>
+      </c>
+      <c r="D2">
+        <v>59.71755929916871</v>
+      </c>
+      <c r="E2">
+        <v>127.08651232915894</v>
+      </c>
+      <c r="F2">
+        <v>66.59913855616138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0.0</v>
+      </c>
+      <c r="B3">
+        <v>0.0</v>
+      </c>
+      <c r="C3">
+        <v>57.06788892703634</v>
+      </c>
+      <c r="D3">
+        <v>106.29970933910111</v>
+      </c>
+      <c r="E3">
+        <v>270.8297164496531</v>
+      </c>
+      <c r="F3">
+        <v>166.36487431802777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0.0</v>
+      </c>
+      <c r="B4">
+        <v>273.71214120050894</v>
+      </c>
+      <c r="C4">
+        <v>67.52417745099999</v>
+      </c>
+      <c r="D4">
+        <v>101.1217010128746</v>
+      </c>
+      <c r="E4">
+        <v>303.11297057659317</v>
+      </c>
+      <c r="F4">
+        <v>150.6157284648102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>603.7008952602121</v>
+      </c>
+      <c r="B5">
+        <v>565.4896077852261</v>
+      </c>
+      <c r="C5">
+        <v>81.3636065392419</v>
+      </c>
+      <c r="D5">
+        <v>132.78213915675806</v>
+      </c>
+      <c r="E5">
+        <v>364.4929144614483</v>
+      </c>
+      <c r="F5">
+        <v>229.82430895691834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>35.152804974970806</v>
+      </c>
+      <c r="B6">
+        <v>721.4715597694662</v>
+      </c>
+      <c r="C6">
+        <v>82.88974384899849</v>
+      </c>
+      <c r="D6">
+        <v>163.64768352234205</v>
+      </c>
+      <c r="E6">
+        <v>370.8949244992298</v>
+      </c>
+      <c r="F6">
+        <v>239.8082906082434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>553.1258632030689</v>
+      </c>
+      <c r="B7">
+        <v>509.6813907170629</v>
+      </c>
+      <c r="C7">
+        <v>68.55834072377009</v>
+      </c>
+      <c r="D7">
+        <v>88.5196783832</v>
+      </c>
+      <c r="E7">
+        <v>315.7506225320713</v>
+      </c>
+      <c r="F7">
+        <v>127.3598853348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>736.7149796399449</v>
+      </c>
+      <c r="B8">
+        <v>850.8752272215812</v>
+      </c>
+      <c r="C8">
+        <v>72.90980180423728</v>
+      </c>
+      <c r="D8">
+        <v>158.32526935747305</v>
+      </c>
+      <c r="E8">
+        <v>393.63137894375956</v>
+      </c>
+      <c r="F8">
+        <v>228.09853001232665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2324.686195821684</v>
+      </c>
+      <c r="B9">
+        <v>2525.5438299487514</v>
+      </c>
+      <c r="C9">
+        <v>79.18315579323271</v>
+      </c>
+      <c r="D9">
+        <v>169.67829055176574</v>
+      </c>
+      <c r="E9">
+        <v>404.45377960018504</v>
+      </c>
+      <c r="F9">
+        <v>244.8346014185639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2261.688907290222</v>
+      </c>
+      <c r="B10">
+        <v>2369.046941785402</v>
+      </c>
+      <c r="C10">
+        <v>88.02688520599075</v>
+      </c>
+      <c r="D10">
+        <v>184.0959060237658</v>
+      </c>
+      <c r="E10">
+        <v>384.7155687432974</v>
+      </c>
+      <c r="F10">
+        <v>248.18868668679198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2188.8049364883227</v>
+      </c>
+      <c r="B11">
+        <v>1690.5447426749615</v>
+      </c>
+      <c r="C11">
+        <v>87.6507466104</v>
+      </c>
+      <c r="D11">
+        <v>174.92877461546666</v>
+      </c>
+      <c r="E11">
+        <v>393.617401982</v>
+      </c>
+      <c r="F11">
+        <v>221.5342059084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1027.9318716596445</v>
+      </c>
+      <c r="B12">
+        <v>507.42856893374227</v>
+      </c>
+      <c r="C12">
+        <v>80.51940419542758</v>
+      </c>
+      <c r="D12">
+        <v>184.78093259913416</v>
+      </c>
+      <c r="E12">
+        <v>425.4533482773728</v>
+      </c>
+      <c r="F12">
+        <v>218.18539890617083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>3068.7019946498112</v>
+      </c>
+      <c r="B13">
+        <v>880.9958888170329</v>
+      </c>
+      <c r="C13">
+        <v>61.38658736221934</v>
+      </c>
+      <c r="D13">
+        <v>166.8825564239656</v>
+      </c>
+      <c r="E13">
+        <v>369.83850717187084</v>
+      </c>
+      <c r="F13">
+        <v>232.74593811375487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>3535.4837346624263</v>
+      </c>
+      <c r="B14">
+        <v>670.2285187503554</v>
+      </c>
+      <c r="C14">
+        <v>62.00012938403007</v>
+      </c>
+      <c r="D14">
+        <v>83.78086662999999</v>
+      </c>
+      <c r="E14">
+        <v>354.6703556478489</v>
+      </c>
+      <c r="F14">
+        <v>122.00111991809999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2413.1983214506836</v>
+      </c>
+      <c r="B15">
+        <v>536.6913256903616</v>
+      </c>
+      <c r="C15">
+        <v>72.3148889124</v>
+      </c>
+      <c r="D15">
+        <v>142.5762548144</v>
+      </c>
+      <c r="E15">
+        <v>393.19459055799996</v>
+      </c>
+      <c r="F15">
+        <v>189.6923788584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1697.5274818980781</v>
+      </c>
+      <c r="B16">
+        <v>924.4218857102076</v>
+      </c>
+      <c r="C16">
+        <v>71.699423992</v>
+      </c>
+      <c r="D16">
+        <v>139.8161149352</v>
+      </c>
+      <c r="E16">
+        <v>391.75955052</v>
+      </c>
+      <c r="F16">
+        <v>143.5620925464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2581.2339400956103</v>
+      </c>
+      <c r="B17">
+        <v>2042.212990968979</v>
+      </c>
+      <c r="C17">
+        <v>55.55708445063268</v>
+      </c>
+      <c r="D17">
+        <v>79.5734814586</v>
+      </c>
+      <c r="E17">
+        <v>302.3876695817348</v>
+      </c>
+      <c r="F17">
+        <v>89.45287411289999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1207.8420700213378</v>
+      </c>
+      <c r="B18">
+        <v>1729.3274248472937</v>
+      </c>
+      <c r="C18">
+        <v>69.5631720453778</v>
+      </c>
+      <c r="D18">
+        <v>143.341538527427</v>
+      </c>
+      <c r="E18">
+        <v>371.96259277632697</v>
+      </c>
+      <c r="F18">
+        <v>141.56280425045657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>497.34267158347666</v>
+      </c>
+      <c r="B19">
+        <v>716.2908989043865</v>
+      </c>
+      <c r="C19">
+        <v>70.43685818952872</v>
+      </c>
+      <c r="D19">
+        <v>145.13721899865888</v>
+      </c>
+      <c r="E19">
+        <v>373.85750972217227</v>
+      </c>
+      <c r="F19">
+        <v>132.96338508450998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2785.5432192414805</v>
+      </c>
+      <c r="B20">
+        <v>3122.1419819364464</v>
+      </c>
+      <c r="C20">
+        <v>47.35125585571851</v>
+      </c>
+      <c r="D20">
+        <v>158.50941891914272</v>
+      </c>
+      <c r="E20">
+        <v>320.1337230693778</v>
+      </c>
+      <c r="F20">
+        <v>168.05367503624888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2536.89164316</v>
+      </c>
+      <c r="B21">
+        <v>2948.0605530884995</v>
+      </c>
+      <c r="C21">
+        <v>60.05645001720001</v>
+      </c>
+      <c r="D21">
+        <v>153.9075104196</v>
+      </c>
+      <c r="E21">
+        <v>368.43240295399994</v>
+      </c>
+      <c r="F21">
+        <v>197.1204255432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>999.2420089324289</v>
+      </c>
+      <c r="B22">
+        <v>2695.88155307651</v>
+      </c>
+      <c r="C22">
+        <v>69.81371788497442</v>
+      </c>
+      <c r="D22">
+        <v>146.1744108914071</v>
+      </c>
+      <c r="E22">
+        <v>411.3536329917461</v>
+      </c>
+      <c r="F22">
+        <v>203.44053090802623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2059.5467275024857</v>
+      </c>
+      <c r="B23">
+        <v>939.0368205995104</v>
+      </c>
+      <c r="C23">
+        <v>85.8990962316</v>
+      </c>
+      <c r="D23">
+        <v>152.26321811946667</v>
+      </c>
+      <c r="E23">
+        <v>399.54399073599996</v>
+      </c>
+      <c r="F23">
+        <v>188.83870320920002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2025.5156256020166</v>
+      </c>
+      <c r="B24">
+        <v>2013.2748130493144</v>
+      </c>
+      <c r="C24">
+        <v>83.25148657916792</v>
+      </c>
+      <c r="D24">
+        <v>150.6486088693005</v>
+      </c>
+      <c r="E24">
+        <v>409.0565846319876</v>
+      </c>
+      <c r="F24">
+        <v>95.22081841556857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>592.6046382804761</v>
+      </c>
+      <c r="B25">
+        <v>824.3680575480814</v>
+      </c>
+      <c r="C25">
+        <v>83.51396095058809</v>
+      </c>
+      <c r="D25">
+        <v>127.20775752661977</v>
+      </c>
+      <c r="E25">
+        <v>408.45884784385777</v>
+      </c>
+      <c r="F25">
+        <v>47.524835987033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:X25"/>
@@ -12631,4 +13146,967 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="B2">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>316.64547677261635</v>
+      </c>
+      <c r="J2">
+        <v>0.0</v>
+      </c>
+      <c r="K2">
+        <v>107.99823960880212</v>
+      </c>
+      <c r="L2">
+        <v>-0.8647432762836615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>0.0</v>
+      </c>
+      <c r="B3">
+        <v>0.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>28.030733679950345</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>1592.0</v>
+      </c>
+      <c r="I3">
+        <v>1751.318313113808</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0.0</v>
+      </c>
+      <c r="L3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>0.0</v>
+      </c>
+      <c r="B4">
+        <v>0.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>788.0</v>
+      </c>
+      <c r="I4">
+        <v>813.0847457627124</v>
+      </c>
+      <c r="J4">
+        <v>0.0</v>
+      </c>
+      <c r="K4">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>0.0</v>
+      </c>
+      <c r="B5">
+        <v>0.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>1592.0</v>
+      </c>
+      <c r="I5">
+        <v>1785.62095531587</v>
+      </c>
+      <c r="J5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>0.0</v>
+      </c>
+      <c r="B6">
+        <v>0.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>1592.0</v>
+      </c>
+      <c r="I6">
+        <v>1771.9383667180268</v>
+      </c>
+      <c r="J6">
+        <v>0.0</v>
+      </c>
+      <c r="K6">
+        <v>0.0</v>
+      </c>
+      <c r="L6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>0.0</v>
+      </c>
+      <c r="B7">
+        <v>0.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>106.22739018087941</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="J7">
+        <v>0.0</v>
+      </c>
+      <c r="K7">
+        <v>0.0</v>
+      </c>
+      <c r="L7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>0.0</v>
+      </c>
+      <c r="B8">
+        <v>0.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>1592.0</v>
+      </c>
+      <c r="I8">
+        <v>1771.9383667180277</v>
+      </c>
+      <c r="J8">
+        <v>0.0</v>
+      </c>
+      <c r="K8">
+        <v>0.0</v>
+      </c>
+      <c r="L8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>0.0</v>
+      </c>
+      <c r="B9">
+        <v>0.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+      <c r="H9">
+        <v>1592.0</v>
+      </c>
+      <c r="I9">
+        <v>1785.62095531587</v>
+      </c>
+      <c r="J9">
+        <v>0.0</v>
+      </c>
+      <c r="K9">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>0.0</v>
+      </c>
+      <c r="B10">
+        <v>0.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0.0</v>
+      </c>
+      <c r="H10">
+        <v>1592.0</v>
+      </c>
+      <c r="I10">
+        <v>1785.620955315871</v>
+      </c>
+      <c r="J10">
+        <v>0.0</v>
+      </c>
+      <c r="K10">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>0.0</v>
+      </c>
+      <c r="B11">
+        <v>0.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+      <c r="F11">
+        <v>55.482622838555244</v>
+      </c>
+      <c r="G11">
+        <v>0.0</v>
+      </c>
+      <c r="H11">
+        <v>1592.0</v>
+      </c>
+      <c r="I11">
+        <v>1742.6666666666665</v>
+      </c>
+      <c r="J11">
+        <v>0.0</v>
+      </c>
+      <c r="K11">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>0.0</v>
+      </c>
+      <c r="B12">
+        <v>0.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+      <c r="F12">
+        <v>0.0</v>
+      </c>
+      <c r="G12">
+        <v>0.0</v>
+      </c>
+      <c r="H12">
+        <v>1592.0</v>
+      </c>
+      <c r="I12">
+        <v>1759.1217967590987</v>
+      </c>
+      <c r="J12">
+        <v>0.0</v>
+      </c>
+      <c r="K12">
+        <v>10.907739788405252</v>
+      </c>
+      <c r="L12">
+        <v>-15.565331459197523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>0.0</v>
+      </c>
+      <c r="B13">
+        <v>0.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+      <c r="F13">
+        <v>0.0</v>
+      </c>
+      <c r="G13">
+        <v>0.0</v>
+      </c>
+      <c r="H13">
+        <v>1592.0</v>
+      </c>
+      <c r="I13">
+        <v>1869.1182795698933</v>
+      </c>
+      <c r="J13">
+        <v>0.0</v>
+      </c>
+      <c r="K13">
+        <v>218.49226021159575</v>
+      </c>
+      <c r="L13">
+        <v>95.92062968752907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>272.30120547945353</v>
+      </c>
+      <c r="B14">
+        <v>371.1104986301377</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+      <c r="F14">
+        <v>406.73656164383374</v>
+      </c>
+      <c r="G14">
+        <v>0.0</v>
+      </c>
+      <c r="H14">
+        <v>222.6712328767112</v>
+      </c>
+      <c r="I14">
+        <v>0.0</v>
+      </c>
+      <c r="J14">
+        <v>0.0</v>
+      </c>
+      <c r="K14">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>0.0</v>
+      </c>
+      <c r="B15">
+        <v>-74.03806594040384</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+      <c r="F15">
+        <v>59.86282990475593</v>
+      </c>
+      <c r="G15">
+        <v>0.0</v>
+      </c>
+      <c r="H15">
+        <v>1592.0</v>
+      </c>
+      <c r="I15">
+        <v>1742.6666666666665</v>
+      </c>
+      <c r="J15">
+        <v>0.0</v>
+      </c>
+      <c r="K15">
+        <v>123.77189552377104</v>
+      </c>
+      <c r="L15">
+        <v>10.242462688127944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>0.0</v>
+      </c>
+      <c r="B16">
+        <v>0.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+      <c r="F16">
+        <v>55.482622838555244</v>
+      </c>
+      <c r="G16">
+        <v>0.0</v>
+      </c>
+      <c r="H16">
+        <v>1592.0</v>
+      </c>
+      <c r="I16">
+        <v>1742.6666666666665</v>
+      </c>
+      <c r="J16">
+        <v>0.0</v>
+      </c>
+      <c r="K16">
+        <v>112.94305027677683</v>
+      </c>
+      <c r="L16">
+        <v>-0.6234337727566981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>0.0</v>
+      </c>
+      <c r="B17">
+        <v>0.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+      <c r="F17">
+        <v>0.0</v>
+      </c>
+      <c r="G17">
+        <v>0.0</v>
+      </c>
+      <c r="H17">
+        <v>79.87074829931998</v>
+      </c>
+      <c r="I17">
+        <v>0.0</v>
+      </c>
+      <c r="J17">
+        <v>0.0</v>
+      </c>
+      <c r="K17">
+        <v>117.16817359243396</v>
+      </c>
+      <c r="L17">
+        <v>2.276778293979987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>0.0</v>
+      </c>
+      <c r="B18">
+        <v>0.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+      <c r="F18">
+        <v>77.94232397148016</v>
+      </c>
+      <c r="G18">
+        <v>20.213731019632633</v>
+      </c>
+      <c r="H18">
+        <v>1592.0</v>
+      </c>
+      <c r="I18">
+        <v>1725.2785109508532</v>
+      </c>
+      <c r="J18">
+        <v>0.0</v>
+      </c>
+      <c r="K18">
+        <v>112.23182640756659</v>
+      </c>
+      <c r="L18">
+        <v>-0.3659342224186162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>0.0</v>
+      </c>
+      <c r="B19">
+        <v>0.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+      <c r="F19">
+        <v>29.620238826888453</v>
+      </c>
+      <c r="G19">
+        <v>0.0</v>
+      </c>
+      <c r="H19">
+        <v>1592.0</v>
+      </c>
+      <c r="I19">
+        <v>1750.4304073585681</v>
+      </c>
+      <c r="J19">
+        <v>0.0</v>
+      </c>
+      <c r="K19">
+        <v>2.3587084520722783</v>
+      </c>
+      <c r="L19">
+        <v>-30.84907953626623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>0.0</v>
+      </c>
+      <c r="B20">
+        <v>0.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+      <c r="F20">
+        <v>0.0</v>
+      </c>
+      <c r="G20">
+        <v>0.0</v>
+      </c>
+      <c r="H20">
+        <v>1592.0</v>
+      </c>
+      <c r="I20">
+        <v>1858.8938271604939</v>
+      </c>
+      <c r="J20">
+        <v>0.0</v>
+      </c>
+      <c r="K20">
+        <v>227.04129154792827</v>
+      </c>
+      <c r="L20">
+        <v>117.82298267014585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>0.0</v>
+      </c>
+      <c r="B21">
+        <v>0.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+      <c r="F21">
+        <v>0.0</v>
+      </c>
+      <c r="G21">
+        <v>0.0</v>
+      </c>
+      <c r="H21">
+        <v>1592.0</v>
+      </c>
+      <c r="I21">
+        <v>1820.0</v>
+      </c>
+      <c r="J21">
+        <v>0.0</v>
+      </c>
+      <c r="K21">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>0.0</v>
+      </c>
+      <c r="B22">
+        <v>0.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+      <c r="F22">
+        <v>0.0</v>
+      </c>
+      <c r="G22">
+        <v>0.0</v>
+      </c>
+      <c r="H22">
+        <v>1592.0</v>
+      </c>
+      <c r="I22">
+        <v>1802.4209553158707</v>
+      </c>
+      <c r="J22">
+        <v>0.0</v>
+      </c>
+      <c r="K22">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>0.0</v>
+      </c>
+      <c r="B23">
+        <v>0.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+      <c r="F23">
+        <v>58.39171171171142</v>
+      </c>
+      <c r="G23">
+        <v>0.0</v>
+      </c>
+      <c r="H23">
+        <v>1592.0</v>
+      </c>
+      <c r="I23">
+        <v>1742.6666666666665</v>
+      </c>
+      <c r="J23">
+        <v>0.0</v>
+      </c>
+      <c r="K23">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>0.0</v>
+      </c>
+      <c r="B24">
+        <v>0.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+      <c r="F24">
+        <v>0.0</v>
+      </c>
+      <c r="G24">
+        <v>0.0</v>
+      </c>
+      <c r="H24">
+        <v>1592.0</v>
+      </c>
+      <c r="I24">
+        <v>1785.6209553158715</v>
+      </c>
+      <c r="J24">
+        <v>0.0</v>
+      </c>
+      <c r="K24">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>0.0</v>
+      </c>
+      <c r="B25">
+        <v>0.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+      <c r="F25">
+        <v>0.0</v>
+      </c>
+      <c r="G25">
+        <v>0.0</v>
+      </c>
+      <c r="H25">
+        <v>1592.0</v>
+      </c>
+      <c r="I25">
+        <v>1766.9764252035998</v>
+      </c>
+      <c r="J25">
+        <v>0.0</v>
+      </c>
+      <c r="K25">
+        <v>0.0</v>
+      </c>
+      <c r="L25">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>